--- a/results/Result_France.xlsx
+++ b/results/Result_France.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reynesfgd\Documents\GitHub\ThreeME_V3\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4742111-493B-43EB-B274-9AF342BE8C83}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE90D0D-A167-461D-A038-79F8DC59B848}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43605" yWindow="-15960" windowWidth="25440" windowHeight="15390" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-43605" yWindow="-15960" windowWidth="25440" windowHeight="15390" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab-macro" sheetId="1" r:id="rId1"/>
     <sheet name="Graph-macro" sheetId="2" r:id="rId2"/>
     <sheet name="Macro" sheetId="3" r:id="rId3"/>
-    <sheet name="Sectors" sheetId="4" r:id="rId4"/>
+    <sheet name="GHG" sheetId="5" r:id="rId4"/>
+    <sheet name="Sectors" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="formatResults">[1]ResultsEXR10!$A$50</definedName>
@@ -391,6 +392,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -403,7 +405,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,7 +1245,7 @@
         <c:axId val="4528535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-40"/>
+          <c:min val="-30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -6698,28 +6699,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -7434,28 +7435,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -8232,9 +8233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8602,8 +8601,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8611,17 +8613,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E679910E-ACC4-4C9F-9CE4-7ED6A1DFC42A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC6D842-9D10-4AD9-9E35-FF35C56D815F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Result_France.xlsx
+++ b/results/Result_France.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2642718-9A86-4E97-8287-9896C7EC6B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BDEACB-C1C0-437B-8528-8AD9AECE359E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6045" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1364,9 +1364,6 @@
     <t>Ponts &amp; tunels</t>
   </si>
   <si>
-    <t>Préparation de site &amp; autres infra</t>
-  </si>
-  <si>
     <t>Agrégation de secteurs</t>
   </si>
   <si>
@@ -1377,6 +1374,9 @@
   </si>
   <si>
     <t>Balance commerciale</t>
+  </si>
+  <si>
+    <t>Aménagement de sites</t>
   </si>
 </sst>
 </file>
@@ -1805,6 +1805,27 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1832,27 +1853,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4287,7 +4287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Préparation de site &amp; autres infra</c:v>
+                  <c:v>Aménagement de sites</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5295,7 +5295,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Préparation de site &amp; autres infra</c:v>
+                  <c:v>Aménagement de sites</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6049,7 +6049,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Préparation de site &amp; autres infra</c:v>
+                  <c:v>Aménagement de sites</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22390,16 +22390,16 @@
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -22407,16 +22407,16 @@
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -23365,16 +23365,16 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -23382,16 +23382,16 @@
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="69"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="82"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -24463,16 +24463,16 @@
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="9"/>
       <c r="B2" s="39"/>
-      <c r="C2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -25091,28 +25091,28 @@
     <row r="32" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="B32" s="44"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A33" s="9"/>
       <c r="B33" s="39"/>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
       <c r="K33" s="12"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
@@ -25861,36 +25861,36 @@
         <v>2050</v>
       </c>
       <c r="AG1" s="56"/>
-      <c r="AH1" s="72" t="s">
+      <c r="AH1" s="63" t="s">
         <v>428</v>
       </c>
-      <c r="AI1" s="72" t="s">
+      <c r="AI1" s="63" t="s">
         <v>429</v>
       </c>
-      <c r="AJ1" s="72" t="s">
+      <c r="AJ1" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="AK1" s="72" t="s">
+      <c r="AK1" s="63" t="s">
         <v>431</v>
       </c>
-      <c r="AL1" s="72" t="s">
+      <c r="AL1" s="63" t="s">
         <v>432</v>
       </c>
-      <c r="AM1" s="72" t="s">
+      <c r="AM1" s="63" t="s">
         <v>433</v>
       </c>
-      <c r="AO1" s="73" t="s">
+      <c r="AO1" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="AP1" s="73" t="s">
+      <c r="AP1" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="AQ1" s="73" t="s">
+      <c r="AQ1" s="64" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="C3" s="77"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="17" spans="1:43" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A17" s="7"/>
@@ -26126,40 +26126,40 @@
         <v>1.6783601570685119E-3</v>
       </c>
       <c r="AG26" s="52"/>
-      <c r="AH26" s="74">
+      <c r="AH26" s="65">
         <f>AVERAGE(C26:G26)</f>
         <v>1.5890275137392163E-3</v>
       </c>
-      <c r="AI26" s="74">
+      <c r="AI26" s="65">
         <f>AVERAGE(H26:L26)</f>
         <v>1.8189348923122826E-3</v>
       </c>
-      <c r="AJ26" s="74">
+      <c r="AJ26" s="65">
         <f>AVERAGE(M26:Q26)</f>
         <v>2.0331889800395825E-3</v>
       </c>
-      <c r="AK26" s="74">
+      <c r="AK26" s="65">
         <f>AVERAGE(R26:V26)</f>
         <v>2.1057273355456945E-3</v>
       </c>
-      <c r="AL26" s="74">
+      <c r="AL26" s="65">
         <f>AVERAGE(W26:AA26)</f>
         <v>2.0290234600482348E-3</v>
       </c>
-      <c r="AM26" s="74">
+      <c r="AM26" s="65">
         <f>AVERAGE(AB26:AF26)</f>
         <v>1.7965966648821462E-3</v>
       </c>
-      <c r="AN26" s="75"/>
-      <c r="AO26" s="74">
+      <c r="AN26" s="66"/>
+      <c r="AO26" s="65">
         <f>AVERAGE(AH26:AI26)</f>
         <v>1.7039812030257495E-3</v>
       </c>
-      <c r="AP26" s="74">
+      <c r="AP26" s="65">
         <f>AVERAGE(AJ26:AK26)</f>
         <v>2.0694581577926385E-3</v>
       </c>
-      <c r="AQ26" s="74">
+      <c r="AQ26" s="65">
         <f>AVERAGE(AL26:AM26)</f>
         <v>1.9128100624651906E-3</v>
       </c>
@@ -26290,40 +26290,40 @@
         <v>1.1132250075992436E-2</v>
       </c>
       <c r="AG27" s="52"/>
-      <c r="AH27" s="74">
+      <c r="AH27" s="65">
         <f>AVERAGE(C27:G27)</f>
         <v>1.2036973526348613E-2</v>
       </c>
-      <c r="AI27" s="74">
+      <c r="AI27" s="65">
         <f>AVERAGE(H27:L27)</f>
         <v>1.215822966185286E-2</v>
       </c>
-      <c r="AJ27" s="74">
+      <c r="AJ27" s="65">
         <f>AVERAGE(M27:Q27)</f>
         <v>1.2690336887642905E-2</v>
       </c>
-      <c r="AK27" s="74">
+      <c r="AK27" s="65">
         <f>AVERAGE(R27:V27)</f>
         <v>1.2127279608883008E-2</v>
       </c>
-      <c r="AL27" s="74">
+      <c r="AL27" s="65">
         <f>AVERAGE(W27:AA27)</f>
         <v>1.1850968771168344E-2</v>
       </c>
-      <c r="AM27" s="74">
+      <c r="AM27" s="65">
         <f>AVERAGE(AB27:AF27)</f>
         <v>1.1387972304726334E-2</v>
       </c>
-      <c r="AN27" s="75"/>
-      <c r="AO27" s="74">
+      <c r="AN27" s="66"/>
+      <c r="AO27" s="65">
         <f>AVERAGE(AH27:AI27)</f>
         <v>1.2097601594100737E-2</v>
       </c>
-      <c r="AP27" s="74">
+      <c r="AP27" s="65">
         <f>AVERAGE(AJ27:AK27)</f>
         <v>1.2408808248262956E-2</v>
       </c>
-      <c r="AQ27" s="74">
+      <c r="AQ27" s="65">
         <f>AVERAGE(AL27:AM27)</f>
         <v>1.1619470537947339E-2</v>
       </c>
@@ -26453,47 +26453,47 @@
         <v>1.1561655537617455E-2</v>
       </c>
       <c r="AG28" s="52"/>
-      <c r="AH28" s="74">
+      <c r="AH28" s="65">
         <f t="shared" ref="AH28:AH31" si="1">AVERAGE(C28:G28)</f>
         <v>1.4341068650338684E-2</v>
       </c>
-      <c r="AI28" s="74">
+      <c r="AI28" s="65">
         <f t="shared" ref="AI28:AI31" si="2">AVERAGE(H28:L28)</f>
         <v>1.5007899349464005E-2</v>
       </c>
-      <c r="AJ28" s="74">
+      <c r="AJ28" s="65">
         <f t="shared" ref="AJ28:AJ31" si="3">AVERAGE(M28:Q28)</f>
         <v>1.4572008869562225E-2</v>
       </c>
-      <c r="AK28" s="74">
+      <c r="AK28" s="65">
         <f t="shared" ref="AK28:AK31" si="4">AVERAGE(R28:V28)</f>
         <v>1.335015681487306E-2</v>
       </c>
-      <c r="AL28" s="74">
+      <c r="AL28" s="65">
         <f t="shared" ref="AL28:AL31" si="5">AVERAGE(W28:AA28)</f>
         <v>1.2664039425285267E-2</v>
       </c>
-      <c r="AM28" s="74">
+      <c r="AM28" s="65">
         <f t="shared" ref="AM28:AM31" si="6">AVERAGE(AB28:AF28)</f>
         <v>1.1917540804238236E-2</v>
       </c>
-      <c r="AN28" s="75"/>
-      <c r="AO28" s="74">
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="65">
         <f t="shared" ref="AO28:AO31" si="7">AVERAGE(AH28:AI28)</f>
         <v>1.4674483999901344E-2</v>
       </c>
-      <c r="AP28" s="74">
+      <c r="AP28" s="65">
         <f t="shared" ref="AP28:AP31" si="8">AVERAGE(AJ28:AK28)</f>
         <v>1.3961082842217643E-2</v>
       </c>
-      <c r="AQ28" s="74">
+      <c r="AQ28" s="65">
         <f t="shared" ref="AQ28:AQ31" si="9">AVERAGE(AL28:AM28)</f>
         <v>1.2290790114761752E-2</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B29" s="37" t="s">
         <v>76</v>
@@ -26619,40 +26619,40 @@
         <v>5.9251668397828101E-3</v>
       </c>
       <c r="AG29" s="52"/>
-      <c r="AH29" s="74">
+      <c r="AH29" s="65">
         <f t="shared" ref="AH29" si="10">AVERAGE(C29:G29)</f>
         <v>4.8901949541362956E-3</v>
       </c>
-      <c r="AI29" s="74">
+      <c r="AI29" s="65">
         <f t="shared" ref="AI29" si="11">AVERAGE(H29:L29)</f>
         <v>8.0638546788993504E-3</v>
       </c>
-      <c r="AJ29" s="74">
+      <c r="AJ29" s="65">
         <f t="shared" ref="AJ29" si="12">AVERAGE(M29:Q29)</f>
         <v>8.3331540483784251E-3</v>
       </c>
-      <c r="AK29" s="74">
+      <c r="AK29" s="65">
         <f t="shared" ref="AK29" si="13">AVERAGE(R29:V29)</f>
         <v>7.7020559421882686E-3</v>
       </c>
-      <c r="AL29" s="74">
+      <c r="AL29" s="65">
         <f t="shared" ref="AL29" si="14">AVERAGE(W29:AA29)</f>
         <v>6.8986453263812034E-3</v>
       </c>
-      <c r="AM29" s="74">
+      <c r="AM29" s="65">
         <f t="shared" ref="AM29" si="15">AVERAGE(AB29:AF29)</f>
         <v>6.1842555478252449E-3</v>
       </c>
-      <c r="AN29" s="75"/>
-      <c r="AO29" s="74">
+      <c r="AN29" s="66"/>
+      <c r="AO29" s="65">
         <f t="shared" ref="AO29" si="16">AVERAGE(AH29:AI29)</f>
         <v>6.4770248165178235E-3</v>
       </c>
-      <c r="AP29" s="74">
+      <c r="AP29" s="65">
         <f t="shared" ref="AP29" si="17">AVERAGE(AJ29:AK29)</f>
         <v>8.0176049952833464E-3</v>
       </c>
-      <c r="AQ29" s="74">
+      <c r="AQ29" s="65">
         <f t="shared" ref="AQ29" si="18">AVERAGE(AL29:AM29)</f>
         <v>6.5414504371032241E-3</v>
       </c>
@@ -26783,47 +26783,47 @@
         <v>1.2810610233060947E-2</v>
       </c>
       <c r="AG30" s="52"/>
-      <c r="AH30" s="74">
+      <c r="AH30" s="65">
         <f t="shared" si="1"/>
         <v>1.3626001040087829E-2</v>
       </c>
-      <c r="AI30" s="74">
+      <c r="AI30" s="65">
         <f t="shared" si="2"/>
         <v>1.3977164554165141E-2</v>
       </c>
-      <c r="AJ30" s="74">
+      <c r="AJ30" s="65">
         <f t="shared" si="3"/>
         <v>1.4723525867682488E-2</v>
       </c>
-      <c r="AK30" s="74">
+      <c r="AK30" s="65">
         <f t="shared" si="4"/>
         <v>1.4233006944428703E-2</v>
       </c>
-      <c r="AL30" s="74">
+      <c r="AL30" s="65">
         <f t="shared" si="5"/>
         <v>1.3879992231216581E-2</v>
       </c>
-      <c r="AM30" s="74">
+      <c r="AM30" s="65">
         <f t="shared" si="6"/>
         <v>1.3184568969608481E-2</v>
       </c>
-      <c r="AN30" s="75"/>
-      <c r="AO30" s="74">
+      <c r="AN30" s="66"/>
+      <c r="AO30" s="65">
         <f t="shared" si="7"/>
         <v>1.3801582797126486E-2</v>
       </c>
-      <c r="AP30" s="74">
+      <c r="AP30" s="65">
         <f t="shared" si="8"/>
         <v>1.4478266406055595E-2</v>
       </c>
-      <c r="AQ30" s="74">
+      <c r="AQ30" s="65">
         <f t="shared" si="9"/>
         <v>1.3532280600412531E-2</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>78</v>
@@ -26949,210 +26949,210 @@
         <v>-7.1740919881407607E-3</v>
       </c>
       <c r="AG31" s="52"/>
-      <c r="AH31" s="74">
+      <c r="AH31" s="65">
         <f t="shared" si="1"/>
         <v>-4.1751263846932672E-3</v>
       </c>
-      <c r="AI31" s="74">
+      <c r="AI31" s="65">
         <f t="shared" si="2"/>
         <v>-7.0331223250153898E-3</v>
       </c>
-      <c r="AJ31" s="74">
+      <c r="AJ31" s="65">
         <f t="shared" si="3"/>
         <v>-8.4846546133728936E-3</v>
       </c>
-      <c r="AK31" s="74">
+      <c r="AK31" s="65">
         <f t="shared" si="4"/>
         <v>-8.5849145940821298E-3</v>
       </c>
-      <c r="AL31" s="74">
+      <c r="AL31" s="65">
         <f t="shared" si="5"/>
         <v>-8.1145876940723581E-3</v>
       </c>
-      <c r="AM31" s="74">
+      <c r="AM31" s="65">
         <f t="shared" si="6"/>
         <v>-7.4512901307885503E-3</v>
       </c>
-      <c r="AN31" s="75"/>
-      <c r="AO31" s="74">
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="65">
         <f t="shared" si="7"/>
         <v>-5.6041243548543285E-3</v>
       </c>
-      <c r="AP31" s="74">
+      <c r="AP31" s="65">
         <f t="shared" si="8"/>
         <v>-8.5347846037275125E-3</v>
       </c>
-      <c r="AQ31" s="74">
+      <c r="AQ31" s="65">
         <f t="shared" si="9"/>
         <v>-7.7829389124304538E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:43" s="84" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:43" s="75" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="62" t="s">
         <v>424</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="82" t="str">
+      <c r="B32" s="74"/>
+      <c r="C32" s="73" t="str">
         <f>IF(ROUND(C28-SUM(C29:C31),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="D32" s="82" t="str">
+      <c r="D32" s="73" t="str">
         <f t="shared" ref="D32:AQ32" si="20">IF(ROUND(D28-SUM(D29:D31),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="E32" s="82" t="str">
+      <c r="E32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="F32" s="82" t="str">
+      <c r="F32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="G32" s="82" t="str">
+      <c r="G32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="H32" s="82" t="str">
+      <c r="H32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="I32" s="82" t="str">
+      <c r="I32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J32" s="82" t="str">
+      <c r="J32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="K32" s="82" t="str">
+      <c r="K32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L32" s="82" t="str">
+      <c r="L32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="M32" s="82" t="str">
+      <c r="M32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N32" s="82" t="str">
+      <c r="N32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="O32" s="82" t="str">
+      <c r="O32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="P32" s="82" t="str">
+      <c r="P32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="Q32" s="82" t="str">
+      <c r="Q32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="R32" s="82" t="str">
+      <c r="R32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="S32" s="82" t="str">
+      <c r="S32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="T32" s="82" t="str">
+      <c r="T32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="U32" s="82" t="str">
+      <c r="U32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="V32" s="82" t="str">
+      <c r="V32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="W32" s="82" t="str">
+      <c r="W32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="X32" s="82" t="str">
+      <c r="X32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="Y32" s="82" t="str">
+      <c r="Y32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="Z32" s="82" t="str">
+      <c r="Z32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AA32" s="82" t="str">
+      <c r="AA32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AB32" s="82" t="str">
+      <c r="AB32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AC32" s="82" t="str">
+      <c r="AC32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AD32" s="82" t="str">
+      <c r="AD32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AE32" s="82" t="str">
+      <c r="AE32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF32" s="82" t="str">
+      <c r="AF32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AG32" s="82" t="str">
+      <c r="AG32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AH32" s="82" t="str">
+      <c r="AH32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AI32" s="82" t="str">
+      <c r="AI32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AJ32" s="82" t="str">
+      <c r="AJ32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AK32" s="82" t="str">
+      <c r="AK32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AL32" s="82" t="str">
+      <c r="AL32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AM32" s="82" t="str">
+      <c r="AM32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AN32" s="82" t="str">
+      <c r="AN32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO32" s="82" t="str">
+      <c r="AO32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AP32" s="82" t="str">
+      <c r="AP32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AQ32" s="82" t="str">
+      <c r="AQ32" s="73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -27160,20 +27160,20 @@
     <row r="33" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A33" s="13"/>
       <c r="B33" s="37"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
       <c r="Q33" s="52"/>
       <c r="R33" s="52"/>
       <c r="S33" s="52"/>
@@ -27191,16 +27191,16 @@
       <c r="AE33" s="52"/>
       <c r="AF33" s="52"/>
       <c r="AG33" s="52"/>
-      <c r="AH33" s="74"/>
-      <c r="AI33" s="74"/>
-      <c r="AJ33" s="74"/>
-      <c r="AK33" s="74"/>
-      <c r="AL33" s="74"/>
-      <c r="AM33" s="74"/>
-      <c r="AN33" s="75"/>
-      <c r="AO33" s="74"/>
-      <c r="AP33" s="74"/>
-      <c r="AQ33" s="74"/>
+      <c r="AH33" s="65"/>
+      <c r="AI33" s="65"/>
+      <c r="AJ33" s="65"/>
+      <c r="AK33" s="65"/>
+      <c r="AL33" s="65"/>
+      <c r="AM33" s="65"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="65"/>
+      <c r="AP33" s="65"/>
+      <c r="AQ33" s="65"/>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A34" s="13"/>
@@ -27236,16 +27236,16 @@
       <c r="AE34" s="52"/>
       <c r="AF34" s="52"/>
       <c r="AG34" s="52"/>
-      <c r="AH34" s="74"/>
-      <c r="AI34" s="74"/>
-      <c r="AJ34" s="74"/>
-      <c r="AK34" s="74"/>
-      <c r="AL34" s="74"/>
-      <c r="AM34" s="74"/>
-      <c r="AN34" s="75"/>
-      <c r="AO34" s="74"/>
-      <c r="AP34" s="74"/>
-      <c r="AQ34" s="74"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
+      <c r="AL34" s="65"/>
+      <c r="AM34" s="65"/>
+      <c r="AN34" s="66"/>
+      <c r="AO34" s="65"/>
+      <c r="AP34" s="65"/>
+      <c r="AQ34" s="65"/>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A35" s="13"/>
@@ -27281,16 +27281,16 @@
       <c r="AE35" s="52"/>
       <c r="AF35" s="52"/>
       <c r="AG35" s="52"/>
-      <c r="AH35" s="74"/>
-      <c r="AI35" s="74"/>
-      <c r="AJ35" s="74"/>
-      <c r="AK35" s="74"/>
-      <c r="AL35" s="74"/>
-      <c r="AM35" s="74"/>
-      <c r="AN35" s="75"/>
-      <c r="AO35" s="74"/>
-      <c r="AP35" s="74"/>
-      <c r="AQ35" s="74"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="65"/>
+      <c r="AJ35" s="65"/>
+      <c r="AK35" s="65"/>
+      <c r="AL35" s="65"/>
+      <c r="AM35" s="65"/>
+      <c r="AN35" s="66"/>
+      <c r="AO35" s="65"/>
+      <c r="AP35" s="65"/>
+      <c r="AQ35" s="65"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A36" s="13"/>
@@ -27326,16 +27326,16 @@
       <c r="AE36" s="52"/>
       <c r="AF36" s="52"/>
       <c r="AG36" s="52"/>
-      <c r="AH36" s="74"/>
-      <c r="AI36" s="74"/>
-      <c r="AJ36" s="74"/>
-      <c r="AK36" s="74"/>
-      <c r="AL36" s="74"/>
-      <c r="AM36" s="74"/>
-      <c r="AN36" s="75"/>
-      <c r="AO36" s="74"/>
-      <c r="AP36" s="74"/>
-      <c r="AQ36" s="74"/>
+      <c r="AH36" s="65"/>
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="65"/>
+      <c r="AK36" s="65"/>
+      <c r="AL36" s="65"/>
+      <c r="AM36" s="65"/>
+      <c r="AN36" s="66"/>
+      <c r="AO36" s="65"/>
+      <c r="AP36" s="65"/>
+      <c r="AQ36" s="65"/>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A37" s="13"/>
@@ -27371,16 +27371,16 @@
       <c r="AE37" s="52"/>
       <c r="AF37" s="52"/>
       <c r="AG37" s="52"/>
-      <c r="AH37" s="74"/>
-      <c r="AI37" s="74"/>
-      <c r="AJ37" s="74"/>
-      <c r="AK37" s="74"/>
-      <c r="AL37" s="74"/>
-      <c r="AM37" s="74"/>
-      <c r="AN37" s="75"/>
-      <c r="AO37" s="74"/>
-      <c r="AP37" s="74"/>
-      <c r="AQ37" s="74"/>
+      <c r="AH37" s="65"/>
+      <c r="AI37" s="65"/>
+      <c r="AJ37" s="65"/>
+      <c r="AK37" s="65"/>
+      <c r="AL37" s="65"/>
+      <c r="AM37" s="65"/>
+      <c r="AN37" s="66"/>
+      <c r="AO37" s="65"/>
+      <c r="AP37" s="65"/>
+      <c r="AQ37" s="65"/>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
@@ -27416,16 +27416,16 @@
       <c r="AE38" s="52"/>
       <c r="AF38" s="52"/>
       <c r="AG38" s="52"/>
-      <c r="AH38" s="74"/>
-      <c r="AI38" s="74"/>
-      <c r="AJ38" s="74"/>
-      <c r="AK38" s="74"/>
-      <c r="AL38" s="74"/>
-      <c r="AM38" s="74"/>
-      <c r="AN38" s="75"/>
-      <c r="AO38" s="74"/>
-      <c r="AP38" s="74"/>
-      <c r="AQ38" s="74"/>
+      <c r="AH38" s="65"/>
+      <c r="AI38" s="65"/>
+      <c r="AJ38" s="65"/>
+      <c r="AK38" s="65"/>
+      <c r="AL38" s="65"/>
+      <c r="AM38" s="65"/>
+      <c r="AN38" s="66"/>
+      <c r="AO38" s="65"/>
+      <c r="AP38" s="65"/>
+      <c r="AQ38" s="65"/>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A39" s="13"/>
@@ -27461,16 +27461,16 @@
       <c r="AE39" s="52"/>
       <c r="AF39" s="52"/>
       <c r="AG39" s="52"/>
-      <c r="AH39" s="74"/>
-      <c r="AI39" s="74"/>
-      <c r="AJ39" s="74"/>
-      <c r="AK39" s="74"/>
-      <c r="AL39" s="74"/>
-      <c r="AM39" s="74"/>
-      <c r="AN39" s="75"/>
-      <c r="AO39" s="74"/>
-      <c r="AP39" s="74"/>
-      <c r="AQ39" s="74"/>
+      <c r="AH39" s="65"/>
+      <c r="AI39" s="65"/>
+      <c r="AJ39" s="65"/>
+      <c r="AK39" s="65"/>
+      <c r="AL39" s="65"/>
+      <c r="AM39" s="65"/>
+      <c r="AN39" s="66"/>
+      <c r="AO39" s="65"/>
+      <c r="AP39" s="65"/>
+      <c r="AQ39" s="65"/>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A40" s="13"/>
@@ -27506,16 +27506,16 @@
       <c r="AE40" s="52"/>
       <c r="AF40" s="52"/>
       <c r="AG40" s="52"/>
-      <c r="AH40" s="74"/>
-      <c r="AI40" s="74"/>
-      <c r="AJ40" s="74"/>
-      <c r="AK40" s="74"/>
-      <c r="AL40" s="74"/>
-      <c r="AM40" s="74"/>
-      <c r="AN40" s="75"/>
-      <c r="AO40" s="74"/>
-      <c r="AP40" s="74"/>
-      <c r="AQ40" s="74"/>
+      <c r="AH40" s="65"/>
+      <c r="AI40" s="65"/>
+      <c r="AJ40" s="65"/>
+      <c r="AK40" s="65"/>
+      <c r="AL40" s="65"/>
+      <c r="AM40" s="65"/>
+      <c r="AN40" s="66"/>
+      <c r="AO40" s="65"/>
+      <c r="AP40" s="65"/>
+      <c r="AQ40" s="65"/>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A41" s="13"/>
@@ -27551,16 +27551,16 @@
       <c r="AE41" s="52"/>
       <c r="AF41" s="52"/>
       <c r="AG41" s="52"/>
-      <c r="AH41" s="74"/>
-      <c r="AI41" s="74"/>
-      <c r="AJ41" s="74"/>
-      <c r="AK41" s="74"/>
-      <c r="AL41" s="74"/>
-      <c r="AM41" s="74"/>
-      <c r="AN41" s="75"/>
-      <c r="AO41" s="74"/>
-      <c r="AP41" s="74"/>
-      <c r="AQ41" s="74"/>
+      <c r="AH41" s="65"/>
+      <c r="AI41" s="65"/>
+      <c r="AJ41" s="65"/>
+      <c r="AK41" s="65"/>
+      <c r="AL41" s="65"/>
+      <c r="AM41" s="65"/>
+      <c r="AN41" s="66"/>
+      <c r="AO41" s="65"/>
+      <c r="AP41" s="65"/>
+      <c r="AQ41" s="65"/>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A42" s="13"/>
@@ -27596,16 +27596,16 @@
       <c r="AE42" s="52"/>
       <c r="AF42" s="52"/>
       <c r="AG42" s="52"/>
-      <c r="AH42" s="74"/>
-      <c r="AI42" s="74"/>
-      <c r="AJ42" s="74"/>
-      <c r="AK42" s="74"/>
-      <c r="AL42" s="74"/>
-      <c r="AM42" s="74"/>
-      <c r="AN42" s="75"/>
-      <c r="AO42" s="74"/>
-      <c r="AP42" s="74"/>
-      <c r="AQ42" s="74"/>
+      <c r="AH42" s="65"/>
+      <c r="AI42" s="65"/>
+      <c r="AJ42" s="65"/>
+      <c r="AK42" s="65"/>
+      <c r="AL42" s="65"/>
+      <c r="AM42" s="65"/>
+      <c r="AN42" s="66"/>
+      <c r="AO42" s="65"/>
+      <c r="AP42" s="65"/>
+      <c r="AQ42" s="65"/>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A43" s="13"/>
@@ -27641,16 +27641,16 @@
       <c r="AE43" s="52"/>
       <c r="AF43" s="52"/>
       <c r="AG43" s="52"/>
-      <c r="AH43" s="74"/>
-      <c r="AI43" s="74"/>
-      <c r="AJ43" s="74"/>
-      <c r="AK43" s="74"/>
-      <c r="AL43" s="74"/>
-      <c r="AM43" s="74"/>
-      <c r="AN43" s="75"/>
-      <c r="AO43" s="74"/>
-      <c r="AP43" s="74"/>
-      <c r="AQ43" s="74"/>
+      <c r="AH43" s="65"/>
+      <c r="AI43" s="65"/>
+      <c r="AJ43" s="65"/>
+      <c r="AK43" s="65"/>
+      <c r="AL43" s="65"/>
+      <c r="AM43" s="65"/>
+      <c r="AN43" s="66"/>
+      <c r="AO43" s="65"/>
+      <c r="AP43" s="65"/>
+      <c r="AQ43" s="65"/>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A44" s="13"/>
@@ -27686,16 +27686,16 @@
       <c r="AE44" s="52"/>
       <c r="AF44" s="52"/>
       <c r="AG44" s="52"/>
-      <c r="AH44" s="74"/>
-      <c r="AI44" s="74"/>
-      <c r="AJ44" s="74"/>
-      <c r="AK44" s="74"/>
-      <c r="AL44" s="74"/>
-      <c r="AM44" s="74"/>
-      <c r="AN44" s="75"/>
-      <c r="AO44" s="74"/>
-      <c r="AP44" s="74"/>
-      <c r="AQ44" s="74"/>
+      <c r="AH44" s="65"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="65"/>
+      <c r="AK44" s="65"/>
+      <c r="AL44" s="65"/>
+      <c r="AM44" s="65"/>
+      <c r="AN44" s="66"/>
+      <c r="AO44" s="65"/>
+      <c r="AP44" s="65"/>
+      <c r="AQ44" s="65"/>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A45" s="13"/>
@@ -27731,16 +27731,16 @@
       <c r="AE45" s="52"/>
       <c r="AF45" s="52"/>
       <c r="AG45" s="52"/>
-      <c r="AH45" s="74"/>
-      <c r="AI45" s="74"/>
-      <c r="AJ45" s="74"/>
-      <c r="AK45" s="74"/>
-      <c r="AL45" s="74"/>
-      <c r="AM45" s="74"/>
-      <c r="AN45" s="75"/>
-      <c r="AO45" s="74"/>
-      <c r="AP45" s="74"/>
-      <c r="AQ45" s="74"/>
+      <c r="AH45" s="65"/>
+      <c r="AI45" s="65"/>
+      <c r="AJ45" s="65"/>
+      <c r="AK45" s="65"/>
+      <c r="AL45" s="65"/>
+      <c r="AM45" s="65"/>
+      <c r="AN45" s="66"/>
+      <c r="AO45" s="65"/>
+      <c r="AP45" s="65"/>
+      <c r="AQ45" s="65"/>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
@@ -27776,16 +27776,16 @@
       <c r="AE46" s="52"/>
       <c r="AF46" s="52"/>
       <c r="AG46" s="52"/>
-      <c r="AH46" s="74"/>
-      <c r="AI46" s="74"/>
-      <c r="AJ46" s="74"/>
-      <c r="AK46" s="74"/>
-      <c r="AL46" s="74"/>
-      <c r="AM46" s="74"/>
-      <c r="AN46" s="75"/>
-      <c r="AO46" s="74"/>
-      <c r="AP46" s="74"/>
-      <c r="AQ46" s="74"/>
+      <c r="AH46" s="65"/>
+      <c r="AI46" s="65"/>
+      <c r="AJ46" s="65"/>
+      <c r="AK46" s="65"/>
+      <c r="AL46" s="65"/>
+      <c r="AM46" s="65"/>
+      <c r="AN46" s="66"/>
+      <c r="AO46" s="65"/>
+      <c r="AP46" s="65"/>
+      <c r="AQ46" s="65"/>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
@@ -27821,16 +27821,16 @@
       <c r="AE47" s="52"/>
       <c r="AF47" s="52"/>
       <c r="AG47" s="52"/>
-      <c r="AH47" s="74"/>
-      <c r="AI47" s="74"/>
-      <c r="AJ47" s="74"/>
-      <c r="AK47" s="74"/>
-      <c r="AL47" s="74"/>
-      <c r="AM47" s="74"/>
-      <c r="AN47" s="75"/>
-      <c r="AO47" s="74"/>
-      <c r="AP47" s="74"/>
-      <c r="AQ47" s="74"/>
+      <c r="AH47" s="65"/>
+      <c r="AI47" s="65"/>
+      <c r="AJ47" s="65"/>
+      <c r="AK47" s="65"/>
+      <c r="AL47" s="65"/>
+      <c r="AM47" s="65"/>
+      <c r="AN47" s="66"/>
+      <c r="AO47" s="65"/>
+      <c r="AP47" s="65"/>
+      <c r="AQ47" s="65"/>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A48" s="13"/>
@@ -27866,16 +27866,16 @@
       <c r="AE48" s="52"/>
       <c r="AF48" s="52"/>
       <c r="AG48" s="52"/>
-      <c r="AH48" s="74"/>
-      <c r="AI48" s="74"/>
-      <c r="AJ48" s="74"/>
-      <c r="AK48" s="74"/>
-      <c r="AL48" s="74"/>
-      <c r="AM48" s="74"/>
-      <c r="AN48" s="75"/>
-      <c r="AO48" s="74"/>
-      <c r="AP48" s="74"/>
-      <c r="AQ48" s="74"/>
+      <c r="AH48" s="65"/>
+      <c r="AI48" s="65"/>
+      <c r="AJ48" s="65"/>
+      <c r="AK48" s="65"/>
+      <c r="AL48" s="65"/>
+      <c r="AM48" s="65"/>
+      <c r="AN48" s="66"/>
+      <c r="AO48" s="65"/>
+      <c r="AP48" s="65"/>
+      <c r="AQ48" s="65"/>
     </row>
     <row r="49" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="13"/>
@@ -27911,16 +27911,16 @@
       <c r="AE49" s="52"/>
       <c r="AF49" s="52"/>
       <c r="AG49" s="52"/>
-      <c r="AH49" s="74"/>
-      <c r="AI49" s="74"/>
-      <c r="AJ49" s="74"/>
-      <c r="AK49" s="74"/>
-      <c r="AL49" s="74"/>
-      <c r="AM49" s="74"/>
-      <c r="AN49" s="75"/>
-      <c r="AO49" s="74"/>
-      <c r="AP49" s="74"/>
-      <c r="AQ49" s="74"/>
+      <c r="AH49" s="65"/>
+      <c r="AI49" s="65"/>
+      <c r="AJ49" s="65"/>
+      <c r="AK49" s="65"/>
+      <c r="AL49" s="65"/>
+      <c r="AM49" s="65"/>
+      <c r="AN49" s="66"/>
+      <c r="AO49" s="65"/>
+      <c r="AP49" s="65"/>
+      <c r="AQ49" s="65"/>
     </row>
     <row r="50" spans="1:43" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="C50" s="52"/>
@@ -27968,25 +27968,25 @@
     <row r="51" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
       <c r="H51" s="56"/>
       <c r="I51" s="56"/>
       <c r="J51" s="56"/>
-      <c r="AG51" s="76"/>
-      <c r="AH51" s="74"/>
-      <c r="AI51" s="74"/>
-      <c r="AJ51" s="74"/>
-      <c r="AK51" s="74"/>
-      <c r="AL51" s="74"/>
-      <c r="AM51" s="74"/>
-      <c r="AN51" s="75"/>
-      <c r="AO51" s="74"/>
-      <c r="AP51" s="74"/>
-      <c r="AQ51" s="74"/>
+      <c r="AG51" s="67"/>
+      <c r="AH51" s="65"/>
+      <c r="AI51" s="65"/>
+      <c r="AJ51" s="65"/>
+      <c r="AK51" s="65"/>
+      <c r="AL51" s="65"/>
+      <c r="AM51" s="65"/>
+      <c r="AN51" s="66"/>
+      <c r="AO51" s="65"/>
+      <c r="AP51" s="65"/>
+      <c r="AQ51" s="65"/>
     </row>
     <row r="52" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="61"/>
@@ -27999,17 +27999,17 @@
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52"/>
-      <c r="AG52" s="76"/>
-      <c r="AH52" s="74"/>
-      <c r="AI52" s="74"/>
-      <c r="AJ52" s="74"/>
-      <c r="AK52" s="74"/>
-      <c r="AL52" s="74"/>
-      <c r="AM52" s="74"/>
-      <c r="AN52" s="75"/>
-      <c r="AO52" s="74"/>
-      <c r="AP52" s="74"/>
-      <c r="AQ52" s="74"/>
+      <c r="AG52" s="67"/>
+      <c r="AH52" s="65"/>
+      <c r="AI52" s="65"/>
+      <c r="AJ52" s="65"/>
+      <c r="AK52" s="65"/>
+      <c r="AL52" s="65"/>
+      <c r="AM52" s="65"/>
+      <c r="AN52" s="66"/>
+      <c r="AO52" s="65"/>
+      <c r="AP52" s="65"/>
+      <c r="AQ52" s="65"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A53" s="9"/>
@@ -28048,17 +28048,17 @@
       <c r="AD54" s="52"/>
       <c r="AE54" s="52"/>
       <c r="AF54" s="52"/>
-      <c r="AG54" s="76"/>
-      <c r="AH54" s="74"/>
-      <c r="AI54" s="74"/>
-      <c r="AJ54" s="74"/>
-      <c r="AK54" s="74"/>
-      <c r="AL54" s="74"/>
-      <c r="AM54" s="74"/>
-      <c r="AN54" s="75"/>
-      <c r="AO54" s="74"/>
-      <c r="AP54" s="74"/>
-      <c r="AQ54" s="74"/>
+      <c r="AG54" s="67"/>
+      <c r="AH54" s="65"/>
+      <c r="AI54" s="65"/>
+      <c r="AJ54" s="65"/>
+      <c r="AK54" s="65"/>
+      <c r="AL54" s="65"/>
+      <c r="AM54" s="65"/>
+      <c r="AN54" s="66"/>
+      <c r="AO54" s="65"/>
+      <c r="AP54" s="65"/>
+      <c r="AQ54" s="65"/>
     </row>
     <row r="55" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="13"/>
@@ -28093,17 +28093,17 @@
       <c r="AD55" s="52"/>
       <c r="AE55" s="52"/>
       <c r="AF55" s="52"/>
-      <c r="AG55" s="76"/>
-      <c r="AH55" s="74"/>
-      <c r="AI55" s="74"/>
-      <c r="AJ55" s="74"/>
-      <c r="AK55" s="74"/>
-      <c r="AL55" s="74"/>
-      <c r="AM55" s="74"/>
-      <c r="AN55" s="75"/>
-      <c r="AO55" s="74"/>
-      <c r="AP55" s="74"/>
-      <c r="AQ55" s="74"/>
+      <c r="AG55" s="67"/>
+      <c r="AH55" s="65"/>
+      <c r="AI55" s="65"/>
+      <c r="AJ55" s="65"/>
+      <c r="AK55" s="65"/>
+      <c r="AL55" s="65"/>
+      <c r="AM55" s="65"/>
+      <c r="AN55" s="66"/>
+      <c r="AO55" s="65"/>
+      <c r="AP55" s="65"/>
+      <c r="AQ55" s="65"/>
     </row>
     <row r="56" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="13"/>
@@ -28138,17 +28138,17 @@
       <c r="AD56" s="52"/>
       <c r="AE56" s="52"/>
       <c r="AF56" s="52"/>
-      <c r="AG56" s="76"/>
-      <c r="AH56" s="74"/>
-      <c r="AI56" s="74"/>
-      <c r="AJ56" s="74"/>
-      <c r="AK56" s="74"/>
-      <c r="AL56" s="74"/>
-      <c r="AM56" s="74"/>
-      <c r="AN56" s="75"/>
-      <c r="AO56" s="74"/>
-      <c r="AP56" s="74"/>
-      <c r="AQ56" s="74"/>
+      <c r="AG56" s="67"/>
+      <c r="AH56" s="65"/>
+      <c r="AI56" s="65"/>
+      <c r="AJ56" s="65"/>
+      <c r="AK56" s="65"/>
+      <c r="AL56" s="65"/>
+      <c r="AM56" s="65"/>
+      <c r="AN56" s="66"/>
+      <c r="AO56" s="65"/>
+      <c r="AP56" s="65"/>
+      <c r="AQ56" s="65"/>
     </row>
     <row r="57" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="13"/>
@@ -28183,17 +28183,17 @@
       <c r="AD57" s="52"/>
       <c r="AE57" s="52"/>
       <c r="AF57" s="52"/>
-      <c r="AG57" s="76"/>
-      <c r="AH57" s="74"/>
-      <c r="AI57" s="74"/>
-      <c r="AJ57" s="74"/>
-      <c r="AK57" s="74"/>
-      <c r="AL57" s="74"/>
-      <c r="AM57" s="74"/>
-      <c r="AN57" s="75"/>
-      <c r="AO57" s="74"/>
-      <c r="AP57" s="74"/>
-      <c r="AQ57" s="74"/>
+      <c r="AG57" s="67"/>
+      <c r="AH57" s="65"/>
+      <c r="AI57" s="65"/>
+      <c r="AJ57" s="65"/>
+      <c r="AK57" s="65"/>
+      <c r="AL57" s="65"/>
+      <c r="AM57" s="65"/>
+      <c r="AN57" s="66"/>
+      <c r="AO57" s="65"/>
+      <c r="AP57" s="65"/>
+      <c r="AQ57" s="65"/>
     </row>
     <row r="58" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="13"/>
@@ -28228,17 +28228,17 @@
       <c r="AD58" s="52"/>
       <c r="AE58" s="52"/>
       <c r="AF58" s="52"/>
-      <c r="AG58" s="76"/>
-      <c r="AH58" s="74"/>
-      <c r="AI58" s="74"/>
-      <c r="AJ58" s="74"/>
-      <c r="AK58" s="74"/>
-      <c r="AL58" s="74"/>
-      <c r="AM58" s="74"/>
-      <c r="AN58" s="75"/>
-      <c r="AO58" s="74"/>
-      <c r="AP58" s="74"/>
-      <c r="AQ58" s="74"/>
+      <c r="AG58" s="67"/>
+      <c r="AH58" s="65"/>
+      <c r="AI58" s="65"/>
+      <c r="AJ58" s="65"/>
+      <c r="AK58" s="65"/>
+      <c r="AL58" s="65"/>
+      <c r="AM58" s="65"/>
+      <c r="AN58" s="66"/>
+      <c r="AO58" s="65"/>
+      <c r="AP58" s="65"/>
+      <c r="AQ58" s="65"/>
     </row>
     <row r="59" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="13"/>
@@ -28273,17 +28273,17 @@
       <c r="AD59" s="52"/>
       <c r="AE59" s="52"/>
       <c r="AF59" s="52"/>
-      <c r="AG59" s="76"/>
-      <c r="AH59" s="74"/>
-      <c r="AI59" s="74"/>
-      <c r="AJ59" s="74"/>
-      <c r="AK59" s="74"/>
-      <c r="AL59" s="74"/>
-      <c r="AM59" s="74"/>
-      <c r="AN59" s="75"/>
-      <c r="AO59" s="74"/>
-      <c r="AP59" s="74"/>
-      <c r="AQ59" s="74"/>
+      <c r="AG59" s="67"/>
+      <c r="AH59" s="65"/>
+      <c r="AI59" s="65"/>
+      <c r="AJ59" s="65"/>
+      <c r="AK59" s="65"/>
+      <c r="AL59" s="65"/>
+      <c r="AM59" s="65"/>
+      <c r="AN59" s="66"/>
+      <c r="AO59" s="65"/>
+      <c r="AP59" s="65"/>
+      <c r="AQ59" s="65"/>
     </row>
     <row r="60" spans="1:43" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="C60" s="60"/>
@@ -28331,24 +28331,24 @@
     <row r="61" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
-      <c r="C61" s="78"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="52"/>
       <c r="E61" s="52"/>
       <c r="F61" s="52"/>
       <c r="G61" s="52"/>
-      <c r="H61" s="78"/>
+      <c r="H61" s="69"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52"/>
-      <c r="AH61" s="74"/>
-      <c r="AI61" s="74"/>
-      <c r="AJ61" s="74"/>
-      <c r="AK61" s="74"/>
-      <c r="AL61" s="74"/>
-      <c r="AM61" s="74"/>
-      <c r="AN61" s="75"/>
-      <c r="AO61" s="74"/>
-      <c r="AP61" s="74"/>
-      <c r="AQ61" s="74"/>
+      <c r="AH61" s="65"/>
+      <c r="AI61" s="65"/>
+      <c r="AJ61" s="65"/>
+      <c r="AK61" s="65"/>
+      <c r="AL61" s="65"/>
+      <c r="AM61" s="65"/>
+      <c r="AN61" s="66"/>
+      <c r="AO61" s="65"/>
+      <c r="AP61" s="65"/>
+      <c r="AQ61" s="65"/>
     </row>
     <row r="62" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="13"/>
@@ -28361,16 +28361,16 @@
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52"/>
-      <c r="AH62" s="74"/>
-      <c r="AI62" s="74"/>
-      <c r="AJ62" s="74"/>
-      <c r="AK62" s="74"/>
-      <c r="AL62" s="74"/>
-      <c r="AM62" s="74"/>
-      <c r="AN62" s="75"/>
-      <c r="AO62" s="74"/>
-      <c r="AP62" s="74"/>
-      <c r="AQ62" s="74"/>
+      <c r="AH62" s="65"/>
+      <c r="AI62" s="65"/>
+      <c r="AJ62" s="65"/>
+      <c r="AK62" s="65"/>
+      <c r="AL62" s="65"/>
+      <c r="AM62" s="65"/>
+      <c r="AN62" s="66"/>
+      <c r="AO62" s="65"/>
+      <c r="AP62" s="65"/>
+      <c r="AQ62" s="65"/>
     </row>
     <row r="63" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="61"/>
@@ -28383,16 +28383,16 @@
       <c r="H63" s="52"/>
       <c r="I63" s="52"/>
       <c r="J63" s="52"/>
-      <c r="AH63" s="74"/>
-      <c r="AI63" s="74"/>
-      <c r="AJ63" s="74"/>
-      <c r="AK63" s="74"/>
-      <c r="AL63" s="74"/>
-      <c r="AM63" s="74"/>
-      <c r="AN63" s="75"/>
-      <c r="AO63" s="74"/>
-      <c r="AP63" s="74"/>
-      <c r="AQ63" s="74"/>
+      <c r="AH63" s="65"/>
+      <c r="AI63" s="65"/>
+      <c r="AJ63" s="65"/>
+      <c r="AK63" s="65"/>
+      <c r="AL63" s="65"/>
+      <c r="AM63" s="65"/>
+      <c r="AN63" s="66"/>
+      <c r="AO63" s="65"/>
+      <c r="AP63" s="65"/>
+      <c r="AQ63" s="65"/>
     </row>
     <row r="64" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="13"/>
@@ -28427,16 +28427,16 @@
       <c r="AD64" s="52"/>
       <c r="AE64" s="52"/>
       <c r="AF64" s="52"/>
-      <c r="AH64" s="74"/>
-      <c r="AI64" s="74"/>
-      <c r="AJ64" s="74"/>
-      <c r="AK64" s="74"/>
-      <c r="AL64" s="74"/>
-      <c r="AM64" s="74"/>
-      <c r="AN64" s="75"/>
-      <c r="AO64" s="74"/>
-      <c r="AP64" s="74"/>
-      <c r="AQ64" s="74"/>
+      <c r="AH64" s="65"/>
+      <c r="AI64" s="65"/>
+      <c r="AJ64" s="65"/>
+      <c r="AK64" s="65"/>
+      <c r="AL64" s="65"/>
+      <c r="AM64" s="65"/>
+      <c r="AN64" s="66"/>
+      <c r="AO64" s="65"/>
+      <c r="AP64" s="65"/>
+      <c r="AQ64" s="65"/>
     </row>
     <row r="65" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="13"/>
@@ -28471,16 +28471,16 @@
       <c r="AD65" s="52"/>
       <c r="AE65" s="52"/>
       <c r="AF65" s="52"/>
-      <c r="AH65" s="74"/>
-      <c r="AI65" s="74"/>
-      <c r="AJ65" s="74"/>
-      <c r="AK65" s="74"/>
-      <c r="AL65" s="74"/>
-      <c r="AM65" s="74"/>
-      <c r="AN65" s="75"/>
-      <c r="AO65" s="74"/>
-      <c r="AP65" s="74"/>
-      <c r="AQ65" s="74"/>
+      <c r="AH65" s="65"/>
+      <c r="AI65" s="65"/>
+      <c r="AJ65" s="65"/>
+      <c r="AK65" s="65"/>
+      <c r="AL65" s="65"/>
+      <c r="AM65" s="65"/>
+      <c r="AN65" s="66"/>
+      <c r="AO65" s="65"/>
+      <c r="AP65" s="65"/>
+      <c r="AQ65" s="65"/>
     </row>
     <row r="66" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="13"/>
@@ -28515,16 +28515,16 @@
       <c r="AD66" s="52"/>
       <c r="AE66" s="52"/>
       <c r="AF66" s="52"/>
-      <c r="AH66" s="74"/>
-      <c r="AI66" s="74"/>
-      <c r="AJ66" s="74"/>
-      <c r="AK66" s="74"/>
-      <c r="AL66" s="74"/>
-      <c r="AM66" s="74"/>
-      <c r="AN66" s="75"/>
-      <c r="AO66" s="74"/>
-      <c r="AP66" s="74"/>
-      <c r="AQ66" s="74"/>
+      <c r="AH66" s="65"/>
+      <c r="AI66" s="65"/>
+      <c r="AJ66" s="65"/>
+      <c r="AK66" s="65"/>
+      <c r="AL66" s="65"/>
+      <c r="AM66" s="65"/>
+      <c r="AN66" s="66"/>
+      <c r="AO66" s="65"/>
+      <c r="AP66" s="65"/>
+      <c r="AQ66" s="65"/>
     </row>
     <row r="67" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="13"/>
@@ -28559,16 +28559,16 @@
       <c r="AD67" s="52"/>
       <c r="AE67" s="52"/>
       <c r="AF67" s="52"/>
-      <c r="AH67" s="74"/>
-      <c r="AI67" s="74"/>
-      <c r="AJ67" s="74"/>
-      <c r="AK67" s="74"/>
-      <c r="AL67" s="74"/>
-      <c r="AM67" s="74"/>
-      <c r="AN67" s="75"/>
-      <c r="AO67" s="74"/>
-      <c r="AP67" s="74"/>
-      <c r="AQ67" s="74"/>
+      <c r="AH67" s="65"/>
+      <c r="AI67" s="65"/>
+      <c r="AJ67" s="65"/>
+      <c r="AK67" s="65"/>
+      <c r="AL67" s="65"/>
+      <c r="AM67" s="65"/>
+      <c r="AN67" s="66"/>
+      <c r="AO67" s="65"/>
+      <c r="AP67" s="65"/>
+      <c r="AQ67" s="65"/>
     </row>
     <row r="68" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="13"/>
@@ -28603,16 +28603,16 @@
       <c r="AD68" s="52"/>
       <c r="AE68" s="52"/>
       <c r="AF68" s="52"/>
-      <c r="AH68" s="74"/>
-      <c r="AI68" s="74"/>
-      <c r="AJ68" s="74"/>
-      <c r="AK68" s="74"/>
-      <c r="AL68" s="74"/>
-      <c r="AM68" s="74"/>
-      <c r="AN68" s="75"/>
-      <c r="AO68" s="74"/>
-      <c r="AP68" s="74"/>
-      <c r="AQ68" s="74"/>
+      <c r="AH68" s="65"/>
+      <c r="AI68" s="65"/>
+      <c r="AJ68" s="65"/>
+      <c r="AK68" s="65"/>
+      <c r="AL68" s="65"/>
+      <c r="AM68" s="65"/>
+      <c r="AN68" s="66"/>
+      <c r="AO68" s="65"/>
+      <c r="AP68" s="65"/>
+      <c r="AQ68" s="65"/>
     </row>
     <row r="69" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="13"/>
@@ -28647,19 +28647,19 @@
       <c r="AD69" s="52"/>
       <c r="AE69" s="52"/>
       <c r="AF69" s="52"/>
-      <c r="AH69" s="74"/>
-      <c r="AI69" s="74"/>
-      <c r="AJ69" s="74"/>
-      <c r="AK69" s="74"/>
-      <c r="AL69" s="74"/>
-      <c r="AM69" s="74"/>
-      <c r="AN69" s="75"/>
-      <c r="AO69" s="74"/>
-      <c r="AP69" s="74"/>
-      <c r="AQ69" s="74"/>
+      <c r="AH69" s="65"/>
+      <c r="AI69" s="65"/>
+      <c r="AJ69" s="65"/>
+      <c r="AK69" s="65"/>
+      <c r="AL69" s="65"/>
+      <c r="AM69" s="65"/>
+      <c r="AN69" s="66"/>
+      <c r="AO69" s="65"/>
+      <c r="AP69" s="65"/>
+      <c r="AQ69" s="65"/>
     </row>
     <row r="70" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="80"/>
+      <c r="A70" s="71"/>
       <c r="B70" s="13"/>
       <c r="C70" s="52"/>
       <c r="D70" s="52"/>
@@ -28691,60 +28691,60 @@
       <c r="AD70" s="52"/>
       <c r="AE70" s="52"/>
       <c r="AF70" s="52"/>
-      <c r="AH70" s="74"/>
-      <c r="AI70" s="74"/>
-      <c r="AJ70" s="74"/>
-      <c r="AK70" s="74"/>
-      <c r="AL70" s="74"/>
-      <c r="AM70" s="74"/>
-      <c r="AN70" s="75"/>
-      <c r="AO70" s="74"/>
-      <c r="AP70" s="74"/>
-      <c r="AQ70" s="74"/>
+      <c r="AH70" s="65"/>
+      <c r="AI70" s="65"/>
+      <c r="AJ70" s="65"/>
+      <c r="AK70" s="65"/>
+      <c r="AL70" s="65"/>
+      <c r="AM70" s="65"/>
+      <c r="AN70" s="66"/>
+      <c r="AO70" s="65"/>
+      <c r="AP70" s="65"/>
+      <c r="AQ70" s="65"/>
     </row>
     <row r="71" spans="1:43" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="81"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="82"/>
-      <c r="I71" s="82"/>
-      <c r="J71" s="82"/>
-      <c r="K71" s="82"/>
-      <c r="L71" s="82"/>
-      <c r="M71" s="82"/>
-      <c r="N71" s="82"/>
-      <c r="O71" s="82"/>
-      <c r="P71" s="82"/>
-      <c r="Q71" s="82"/>
-      <c r="R71" s="82"/>
-      <c r="S71" s="82"/>
-      <c r="T71" s="82"/>
-      <c r="U71" s="82"/>
-      <c r="V71" s="82"/>
-      <c r="W71" s="82"/>
-      <c r="X71" s="82"/>
-      <c r="Y71" s="82"/>
-      <c r="Z71" s="82"/>
-      <c r="AA71" s="82"/>
-      <c r="AB71" s="82"/>
-      <c r="AC71" s="82"/>
-      <c r="AD71" s="82"/>
-      <c r="AE71" s="82"/>
-      <c r="AF71" s="82"/>
-      <c r="AG71" s="82"/>
-      <c r="AH71" s="82"/>
-      <c r="AI71" s="82"/>
-      <c r="AJ71" s="82"/>
-      <c r="AK71" s="82"/>
-      <c r="AL71" s="82"/>
-      <c r="AM71" s="82"/>
-      <c r="AN71" s="82"/>
-      <c r="AO71" s="82"/>
-      <c r="AP71" s="82"/>
-      <c r="AQ71" s="82"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="73"/>
+      <c r="Q71" s="73"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="73"/>
+      <c r="T71" s="73"/>
+      <c r="U71" s="73"/>
+      <c r="V71" s="73"/>
+      <c r="W71" s="73"/>
+      <c r="X71" s="73"/>
+      <c r="Y71" s="73"/>
+      <c r="Z71" s="73"/>
+      <c r="AA71" s="73"/>
+      <c r="AB71" s="73"/>
+      <c r="AC71" s="73"/>
+      <c r="AD71" s="73"/>
+      <c r="AE71" s="73"/>
+      <c r="AF71" s="73"/>
+      <c r="AG71" s="73"/>
+      <c r="AH71" s="73"/>
+      <c r="AI71" s="73"/>
+      <c r="AJ71" s="73"/>
+      <c r="AK71" s="73"/>
+      <c r="AL71" s="73"/>
+      <c r="AM71" s="73"/>
+      <c r="AN71" s="73"/>
+      <c r="AO71" s="73"/>
+      <c r="AP71" s="73"/>
+      <c r="AQ71" s="73"/>
     </row>
     <row r="72" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="13"/>
@@ -28797,7 +28797,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF14" sqref="AF14"/>
+      <selection pane="bottomRight" activeCell="AH35" sqref="AH35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28938,36 +28938,36 @@
         <v>2050</v>
       </c>
       <c r="AG1" s="56"/>
-      <c r="AH1" s="72" t="s">
+      <c r="AH1" s="63" t="s">
         <v>428</v>
       </c>
-      <c r="AI1" s="72" t="s">
+      <c r="AI1" s="63" t="s">
         <v>429</v>
       </c>
-      <c r="AJ1" s="72" t="s">
+      <c r="AJ1" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="AK1" s="72" t="s">
+      <c r="AK1" s="63" t="s">
         <v>431</v>
       </c>
-      <c r="AL1" s="72" t="s">
+      <c r="AL1" s="63" t="s">
         <v>432</v>
       </c>
-      <c r="AM1" s="72" t="s">
+      <c r="AM1" s="63" t="s">
         <v>433</v>
       </c>
-      <c r="AO1" s="73" t="s">
+      <c r="AO1" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="AP1" s="73" t="s">
+      <c r="AP1" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="AQ1" s="73" t="s">
+      <c r="AQ1" s="64" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="C3" s="77"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A17" s="7"/>
@@ -29344,14 +29344,14 @@
     <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
       <c r="K48" s="9"/>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.45">
@@ -29483,40 +29483,40 @@
         <v>3.4753600000003644</v>
       </c>
       <c r="AG50" s="52"/>
-      <c r="AH50" s="74">
+      <c r="AH50" s="65">
         <f>AVERAGE(C50:G50)</f>
         <v>4.0241979999991599</v>
       </c>
-      <c r="AI50" s="74">
+      <c r="AI50" s="65">
         <f>AVERAGE(H50:L50)</f>
         <v>4.9903880000005305</v>
       </c>
-      <c r="AJ50" s="74">
+      <c r="AJ50" s="65">
         <f>AVERAGE(M50:Q50)</f>
         <v>4.2435079999995651</v>
       </c>
-      <c r="AK50" s="74">
+      <c r="AK50" s="65">
         <f>AVERAGE(R50:V50)</f>
         <v>3.724086000000534</v>
       </c>
-      <c r="AL50" s="74">
+      <c r="AL50" s="65">
         <f>AVERAGE(W50:AA50)</f>
         <v>3.5838699999992967</v>
       </c>
-      <c r="AM50" s="74">
+      <c r="AM50" s="65">
         <f>AVERAGE(AB50:AF50)</f>
         <v>3.5181699999993725</v>
       </c>
-      <c r="AN50" s="75"/>
-      <c r="AO50" s="74">
+      <c r="AN50" s="66"/>
+      <c r="AO50" s="65">
         <f>AVERAGE(AH50:AI50)</f>
         <v>4.5072929999998452</v>
       </c>
-      <c r="AP50" s="74">
+      <c r="AP50" s="65">
         <f>AVERAGE(AJ50:AK50)</f>
         <v>3.9837970000000498</v>
       </c>
-      <c r="AQ50" s="74">
+      <c r="AQ50" s="65">
         <f>AVERAGE(AL50:AM50)</f>
         <v>3.5510199999993346</v>
       </c>
@@ -29650,40 +29650,40 @@
         <v>-1.1967600000048151E-2</v>
       </c>
       <c r="AG51" s="52"/>
-      <c r="AH51" s="74">
+      <c r="AH51" s="65">
         <f t="shared" ref="AH51:AH80" si="1">AVERAGE(C51:G51)</f>
         <v>3.750836000001527E-2</v>
       </c>
-      <c r="AI51" s="74">
+      <c r="AI51" s="65">
         <f t="shared" ref="AI51:AI80" si="2">AVERAGE(H51:L51)</f>
         <v>4.1510160000007089E-2</v>
       </c>
-      <c r="AJ51" s="74">
+      <c r="AJ51" s="65">
         <f t="shared" ref="AJ51:AJ80" si="3">AVERAGE(M51:Q51)</f>
         <v>3.2495199999630132E-3</v>
       </c>
-      <c r="AK51" s="74">
+      <c r="AK51" s="65">
         <f t="shared" ref="AK51:AK80" si="4">AVERAGE(R51:V51)</f>
         <v>-1.6845299999999952E-2</v>
       </c>
-      <c r="AL51" s="74">
+      <c r="AL51" s="65">
         <f t="shared" ref="AL51:AL80" si="5">AVERAGE(W51:AA51)</f>
         <v>-1.8975279999995109E-2</v>
       </c>
-      <c r="AM51" s="74">
+      <c r="AM51" s="65">
         <f t="shared" ref="AM51:AM80" si="6">AVERAGE(AB51:AF51)</f>
         <v>-1.4064519999988079E-2</v>
       </c>
-      <c r="AN51" s="75"/>
-      <c r="AO51" s="74">
+      <c r="AN51" s="66"/>
+      <c r="AO51" s="65">
         <f t="shared" ref="AO51:AO80" si="7">AVERAGE(AH51:AI51)</f>
         <v>3.9509260000011176E-2</v>
       </c>
-      <c r="AP51" s="74">
+      <c r="AP51" s="65">
         <f t="shared" ref="AP51:AP80" si="8">AVERAGE(AJ51:AK51)</f>
         <v>-6.7978900000184696E-3</v>
       </c>
-      <c r="AQ51" s="74">
+      <c r="AQ51" s="65">
         <f t="shared" ref="AQ51:AQ80" si="9">AVERAGE(AL51:AM51)</f>
         <v>-1.6519899999991594E-2</v>
       </c>
@@ -29817,40 +29817,40 @@
         <v>2.5827589999991574E-2</v>
       </c>
       <c r="AG52" s="52"/>
-      <c r="AH52" s="74">
+      <c r="AH52" s="65">
         <f t="shared" si="1"/>
         <v>2.7771471999997743E-2</v>
       </c>
-      <c r="AI52" s="74">
+      <c r="AI52" s="65">
         <f t="shared" si="2"/>
         <v>3.2144654000006767E-2</v>
       </c>
-      <c r="AJ52" s="74">
+      <c r="AJ52" s="65">
         <f t="shared" si="3"/>
         <v>2.9107260000003521E-2</v>
       </c>
-      <c r="AK52" s="74">
+      <c r="AK52" s="65">
         <f t="shared" si="4"/>
         <v>2.691242599999839E-2</v>
       </c>
-      <c r="AL52" s="74">
+      <c r="AL52" s="65">
         <f t="shared" si="5"/>
         <v>2.6561363999999799E-2</v>
       </c>
-      <c r="AM52" s="74">
+      <c r="AM52" s="65">
         <f t="shared" si="6"/>
         <v>2.6157659999995531E-2</v>
       </c>
-      <c r="AN52" s="75"/>
-      <c r="AO52" s="74">
+      <c r="AN52" s="66"/>
+      <c r="AO52" s="65">
         <f t="shared" si="7"/>
         <v>2.9958063000002255E-2</v>
       </c>
-      <c r="AP52" s="74">
+      <c r="AP52" s="65">
         <f t="shared" si="8"/>
         <v>2.8009843000000957E-2</v>
       </c>
-      <c r="AQ52" s="74">
+      <c r="AQ52" s="65">
         <f t="shared" si="9"/>
         <v>2.6359511999997663E-2</v>
       </c>
@@ -29984,40 +29984,40 @@
         <v>-1.0316700000004175E-2</v>
       </c>
       <c r="AG53" s="52"/>
-      <c r="AH53" s="74">
+      <c r="AH53" s="65">
         <f t="shared" si="1"/>
         <v>2.9249200000037944E-3</v>
       </c>
-      <c r="AI53" s="74">
+      <c r="AI53" s="65">
         <f t="shared" si="2"/>
         <v>-1.9622399999946081E-3</v>
       </c>
-      <c r="AJ53" s="74">
+      <c r="AJ53" s="65">
         <f t="shared" si="3"/>
         <v>-1.045584000000872E-2</v>
       </c>
-      <c r="AK53" s="74">
+      <c r="AK53" s="65">
         <f t="shared" si="4"/>
         <v>-1.3506020000005493E-2</v>
       </c>
-      <c r="AL53" s="74">
+      <c r="AL53" s="65">
         <f t="shared" si="5"/>
         <v>-1.2746259999988751E-2</v>
       </c>
-      <c r="AM53" s="74">
+      <c r="AM53" s="65">
         <f t="shared" si="6"/>
         <v>-1.0970360000004575E-2</v>
       </c>
-      <c r="AN53" s="75"/>
-      <c r="AO53" s="74">
+      <c r="AN53" s="66"/>
+      <c r="AO53" s="65">
         <f t="shared" si="7"/>
         <v>4.8134000000459314E-4</v>
       </c>
-      <c r="AP53" s="74">
+      <c r="AP53" s="65">
         <f t="shared" si="8"/>
         <v>-1.1980930000007106E-2</v>
       </c>
-      <c r="AQ53" s="74">
+      <c r="AQ53" s="65">
         <f t="shared" si="9"/>
         <v>-1.1858309999996663E-2</v>
       </c>
@@ -30151,40 +30151,40 @@
         <v>5.3227000000006797E-2</v>
       </c>
       <c r="AG54" s="52"/>
-      <c r="AH54" s="74">
+      <c r="AH54" s="65">
         <f t="shared" si="1"/>
         <v>5.379490000000544E-2</v>
       </c>
-      <c r="AI54" s="74">
+      <c r="AI54" s="65">
         <f t="shared" si="2"/>
         <v>6.1754500000000691E-2</v>
       </c>
-      <c r="AJ54" s="74">
+      <c r="AJ54" s="65">
         <f t="shared" si="3"/>
         <v>5.9013000000001627E-2</v>
       </c>
-      <c r="AK54" s="74">
+      <c r="AK54" s="65">
         <f t="shared" si="4"/>
         <v>5.6197240000003035E-2</v>
       </c>
-      <c r="AL54" s="74">
+      <c r="AL54" s="65">
         <f t="shared" si="5"/>
         <v>5.5527880000002486E-2</v>
       </c>
-      <c r="AM54" s="74">
+      <c r="AM54" s="65">
         <f t="shared" si="6"/>
         <v>5.413226000000293E-2</v>
       </c>
-      <c r="AN54" s="75"/>
-      <c r="AO54" s="74">
+      <c r="AN54" s="66"/>
+      <c r="AO54" s="65">
         <f t="shared" si="7"/>
         <v>5.7774700000003065E-2</v>
       </c>
-      <c r="AP54" s="74">
+      <c r="AP54" s="65">
         <f t="shared" si="8"/>
         <v>5.7605120000002327E-2</v>
       </c>
-      <c r="AQ54" s="74">
+      <c r="AQ54" s="65">
         <f t="shared" si="9"/>
         <v>5.4830070000002708E-2</v>
       </c>
@@ -30318,40 +30318,40 @@
         <v>-1.05987999999968E-3</v>
       </c>
       <c r="AG55" s="52"/>
-      <c r="AH55" s="74">
+      <c r="AH55" s="65">
         <f t="shared" si="1"/>
         <v>3.2616440000012405E-3</v>
       </c>
-      <c r="AI55" s="74">
+      <c r="AI55" s="65">
         <f t="shared" si="2"/>
         <v>2.605583999998373E-3</v>
       </c>
-      <c r="AJ55" s="74">
+      <c r="AJ55" s="65">
         <f t="shared" si="3"/>
         <v>-2.0019600000154014E-4</v>
       </c>
-      <c r="AK55" s="74">
+      <c r="AK55" s="65">
         <f t="shared" si="4"/>
         <v>-1.4842020000017443E-3</v>
       </c>
-      <c r="AL55" s="74">
+      <c r="AL55" s="65">
         <f t="shared" si="5"/>
         <v>-1.526415999998676E-3</v>
       </c>
-      <c r="AM55" s="74">
+      <c r="AM55" s="65">
         <f t="shared" si="6"/>
         <v>-1.1887900000019159E-3</v>
       </c>
-      <c r="AN55" s="75"/>
-      <c r="AO55" s="74">
+      <c r="AN55" s="66"/>
+      <c r="AO55" s="65">
         <f t="shared" si="7"/>
         <v>2.9336139999998068E-3</v>
       </c>
-      <c r="AP55" s="74">
+      <c r="AP55" s="65">
         <f t="shared" si="8"/>
         <v>-8.4219900000164221E-4</v>
       </c>
-      <c r="AQ55" s="74">
+      <c r="AQ55" s="65">
         <f t="shared" si="9"/>
         <v>-1.357603000000296E-3</v>
       </c>
@@ -30485,40 +30485,40 @@
         <v>1.0524599999996553E-2</v>
       </c>
       <c r="AG56" s="52"/>
-      <c r="AH56" s="74">
+      <c r="AH56" s="65">
         <f t="shared" si="1"/>
         <v>2.0453100000003131E-2</v>
       </c>
-      <c r="AI56" s="74">
+      <c r="AI56" s="65">
         <f t="shared" si="2"/>
         <v>1.9701500000002169E-2</v>
       </c>
-      <c r="AJ56" s="74">
+      <c r="AJ56" s="65">
         <f t="shared" si="3"/>
         <v>1.299756000000798E-2</v>
       </c>
-      <c r="AK56" s="74">
+      <c r="AK56" s="65">
         <f t="shared" si="4"/>
         <v>9.8149200000023033E-3</v>
       </c>
-      <c r="AL56" s="74">
+      <c r="AL56" s="65">
         <f t="shared" si="5"/>
         <v>9.8734199999967135E-3</v>
       </c>
-      <c r="AM56" s="74">
+      <c r="AM56" s="65">
         <f t="shared" si="6"/>
         <v>1.0430100000002085E-2</v>
       </c>
-      <c r="AN56" s="75"/>
-      <c r="AO56" s="74">
+      <c r="AN56" s="66"/>
+      <c r="AO56" s="65">
         <f t="shared" si="7"/>
         <v>2.007730000000265E-2</v>
       </c>
-      <c r="AP56" s="74">
+      <c r="AP56" s="65">
         <f t="shared" si="8"/>
         <v>1.1406240000005142E-2</v>
       </c>
-      <c r="AQ56" s="74">
+      <c r="AQ56" s="65">
         <f t="shared" si="9"/>
         <v>1.0151759999999399E-2</v>
       </c>
@@ -30652,40 +30652,40 @@
         <v>5.3518899999971836E-2</v>
       </c>
       <c r="AG57" s="52"/>
-      <c r="AH57" s="74">
+      <c r="AH57" s="65">
         <f t="shared" si="1"/>
         <v>7.85235200000102E-2</v>
       </c>
-      <c r="AI57" s="74">
+      <c r="AI57" s="65">
         <f t="shared" si="2"/>
         <v>7.9446740000014421E-2</v>
       </c>
-      <c r="AJ57" s="74">
+      <c r="AJ57" s="65">
         <f t="shared" si="3"/>
         <v>6.1804300000005696E-2</v>
       </c>
-      <c r="AK57" s="74">
+      <c r="AK57" s="65">
         <f t="shared" si="4"/>
         <v>5.2850599999999304E-2</v>
       </c>
-      <c r="AL57" s="74">
+      <c r="AL57" s="65">
         <f t="shared" si="5"/>
         <v>5.2957240000000641E-2</v>
       </c>
-      <c r="AM57" s="74">
+      <c r="AM57" s="65">
         <f t="shared" si="6"/>
         <v>5.3734639999993304E-2</v>
       </c>
-      <c r="AN57" s="75"/>
-      <c r="AO57" s="74">
+      <c r="AN57" s="66"/>
+      <c r="AO57" s="65">
         <f t="shared" si="7"/>
         <v>7.898513000001231E-2</v>
       </c>
-      <c r="AP57" s="74">
+      <c r="AP57" s="65">
         <f t="shared" si="8"/>
         <v>5.73274500000025E-2</v>
       </c>
-      <c r="AQ57" s="74">
+      <c r="AQ57" s="65">
         <f t="shared" si="9"/>
         <v>5.3345939999996969E-2</v>
       </c>
@@ -30819,40 +30819,40 @@
         <v>-1.8983000000162065E-2</v>
       </c>
       <c r="AG58" s="52"/>
-      <c r="AH58" s="74">
+      <c r="AH58" s="65">
         <f t="shared" si="1"/>
         <v>6.3776600000073819E-2</v>
       </c>
-      <c r="AI58" s="74">
+      <c r="AI58" s="65">
         <f t="shared" si="2"/>
         <v>5.8398400000078253E-2</v>
       </c>
-      <c r="AJ58" s="74">
+      <c r="AJ58" s="65">
         <f t="shared" si="3"/>
         <v>6.9980000002942686E-4</v>
       </c>
-      <c r="AK58" s="74">
+      <c r="AK58" s="65">
         <f t="shared" si="4"/>
         <v>-2.6025399999980436E-2</v>
       </c>
-      <c r="AL58" s="74">
+      <c r="AL58" s="65">
         <f t="shared" si="5"/>
         <v>-2.7736000000049898E-2</v>
       </c>
-      <c r="AM58" s="74">
+      <c r="AM58" s="65">
         <f t="shared" si="6"/>
         <v>-2.1414400000048774E-2</v>
       </c>
-      <c r="AN58" s="75"/>
-      <c r="AO58" s="74">
+      <c r="AN58" s="66"/>
+      <c r="AO58" s="65">
         <f t="shared" si="7"/>
         <v>6.1087500000076039E-2</v>
       </c>
-      <c r="AP58" s="74">
+      <c r="AP58" s="65">
         <f t="shared" si="8"/>
         <v>-1.2662799999975504E-2</v>
       </c>
-      <c r="AQ58" s="74">
+      <c r="AQ58" s="65">
         <f t="shared" si="9"/>
         <v>-2.4575200000049334E-2</v>
       </c>
@@ -30986,40 +30986,40 @@
         <v>9.3718000000080792E-2</v>
       </c>
       <c r="AG59" s="52"/>
-      <c r="AH59" s="74">
+      <c r="AH59" s="65">
         <f t="shared" si="1"/>
         <v>8.0588600000010044E-2</v>
       </c>
-      <c r="AI59" s="74">
+      <c r="AI59" s="65">
         <f t="shared" si="2"/>
         <v>0.10933120000004237</v>
       </c>
-      <c r="AJ59" s="74">
+      <c r="AJ59" s="65">
         <f t="shared" si="3"/>
         <v>0.10843659999991359</v>
       </c>
-      <c r="AK59" s="74">
+      <c r="AK59" s="65">
         <f t="shared" si="4"/>
         <v>0.11322639999993953</v>
       </c>
-      <c r="AL59" s="74">
+      <c r="AL59" s="65">
         <f t="shared" si="5"/>
         <v>0.11090659999995296</v>
       </c>
-      <c r="AM59" s="74">
+      <c r="AM59" s="65">
         <f t="shared" si="6"/>
         <v>9.982420000001184E-2</v>
       </c>
-      <c r="AN59" s="75"/>
-      <c r="AO59" s="74">
+      <c r="AN59" s="66"/>
+      <c r="AO59" s="65">
         <f t="shared" si="7"/>
         <v>9.4959900000026215E-2</v>
       </c>
-      <c r="AP59" s="74">
+      <c r="AP59" s="65">
         <f t="shared" si="8"/>
         <v>0.11083149999992656</v>
       </c>
-      <c r="AQ59" s="74">
+      <c r="AQ59" s="65">
         <f t="shared" si="9"/>
         <v>0.1053653999999824</v>
       </c>
@@ -31153,40 +31153,40 @@
         <v>0.90756730000001085</v>
       </c>
       <c r="AG60" s="52"/>
-      <c r="AH60" s="74">
+      <c r="AH60" s="65">
         <f t="shared" si="1"/>
         <v>0.93807402000000195</v>
       </c>
-      <c r="AI60" s="74">
+      <c r="AI60" s="65">
         <f t="shared" si="2"/>
         <v>1.1661376800000027</v>
       </c>
-      <c r="AJ60" s="74">
+      <c r="AJ60" s="65">
         <f t="shared" si="3"/>
         <v>1.0001030199999974</v>
       </c>
-      <c r="AK60" s="74">
+      <c r="AK60" s="65">
         <f t="shared" si="4"/>
         <v>0.92192247999999777</v>
       </c>
-      <c r="AL60" s="74">
+      <c r="AL60" s="65">
         <f t="shared" si="5"/>
         <v>0.93425825999999856</v>
       </c>
-      <c r="AM60" s="74">
+      <c r="AM60" s="65">
         <f t="shared" si="6"/>
         <v>0.92147554000000298</v>
       </c>
-      <c r="AN60" s="75"/>
-      <c r="AO60" s="74">
+      <c r="AN60" s="66"/>
+      <c r="AO60" s="65">
         <f t="shared" si="7"/>
         <v>1.0521058500000025</v>
       </c>
-      <c r="AP60" s="74">
+      <c r="AP60" s="65">
         <f t="shared" si="8"/>
         <v>0.96101274999999764</v>
       </c>
-      <c r="AQ60" s="74">
+      <c r="AQ60" s="65">
         <f t="shared" si="9"/>
         <v>0.92786690000000083</v>
       </c>
@@ -31320,40 +31320,40 @@
         <v>0.46050655800000051</v>
       </c>
       <c r="AG61" s="52"/>
-      <c r="AH61" s="74">
+      <c r="AH61" s="65">
         <f t="shared" si="1"/>
         <v>0.30292156299999978</v>
       </c>
-      <c r="AI61" s="74">
+      <c r="AI61" s="65">
         <f t="shared" si="2"/>
         <v>0.31498507559999994</v>
       </c>
-      <c r="AJ61" s="74">
+      <c r="AJ61" s="65">
         <f t="shared" si="3"/>
         <v>0.49038495740000021</v>
       </c>
-      <c r="AK61" s="74">
+      <c r="AK61" s="65">
         <f t="shared" si="4"/>
         <v>0.50071234480000038</v>
       </c>
-      <c r="AL61" s="74">
+      <c r="AL61" s="65">
         <f t="shared" si="5"/>
         <v>0.48868924920000029</v>
       </c>
-      <c r="AM61" s="74">
+      <c r="AM61" s="65">
         <f t="shared" si="6"/>
         <v>0.47017429760000001</v>
       </c>
-      <c r="AN61" s="75"/>
-      <c r="AO61" s="74">
+      <c r="AN61" s="66"/>
+      <c r="AO61" s="65">
         <f t="shared" si="7"/>
         <v>0.30895331929999986</v>
       </c>
-      <c r="AP61" s="74">
+      <c r="AP61" s="65">
         <f t="shared" si="8"/>
         <v>0.49554865110000029</v>
       </c>
-      <c r="AQ61" s="74">
+      <c r="AQ61" s="65">
         <f t="shared" si="9"/>
         <v>0.47943177340000015</v>
       </c>
@@ -31487,40 +31487,40 @@
         <v>4.1812600000135092E-4</v>
       </c>
       <c r="AG62" s="52"/>
-      <c r="AH62" s="74">
+      <c r="AH62" s="65">
         <f t="shared" si="1"/>
         <v>3.559435999997973E-4</v>
       </c>
-      <c r="AI62" s="74">
+      <c r="AI62" s="65">
         <f t="shared" si="2"/>
         <v>4.5238079999982973E-4</v>
       </c>
-      <c r="AJ62" s="74">
+      <c r="AJ62" s="65">
         <f t="shared" si="3"/>
         <v>4.6626520000003779E-4</v>
       </c>
-      <c r="AK62" s="74">
+      <c r="AK62" s="65">
         <f t="shared" si="4"/>
         <v>5.1075599999972354E-4</v>
       </c>
-      <c r="AL62" s="74">
+      <c r="AL62" s="65">
         <f t="shared" si="5"/>
         <v>5.0656660000036879E-4</v>
       </c>
-      <c r="AM62" s="74">
+      <c r="AM62" s="65">
         <f t="shared" si="6"/>
         <v>4.4995780000007813E-4</v>
       </c>
-      <c r="AN62" s="75"/>
-      <c r="AO62" s="74">
+      <c r="AN62" s="66"/>
+      <c r="AO62" s="65">
         <f t="shared" si="7"/>
         <v>4.0416219999981349E-4</v>
       </c>
-      <c r="AP62" s="74">
+      <c r="AP62" s="65">
         <f t="shared" si="8"/>
         <v>4.8851059999988067E-4</v>
       </c>
-      <c r="AQ62" s="74">
+      <c r="AQ62" s="65">
         <f t="shared" si="9"/>
         <v>4.7826220000022344E-4</v>
       </c>
@@ -31654,40 +31654,40 @@
         <v>3.8759799999965594E-4</v>
       </c>
       <c r="AG63" s="52"/>
-      <c r="AH63" s="74">
+      <c r="AH63" s="65">
         <f t="shared" si="1"/>
         <v>3.275714000000818E-4</v>
       </c>
-      <c r="AI63" s="74">
+      <c r="AI63" s="65">
         <f t="shared" si="2"/>
         <v>4.2191739999974942E-4</v>
       </c>
-      <c r="AJ63" s="74">
+      <c r="AJ63" s="65">
         <f t="shared" si="3"/>
         <v>4.2458340000024465E-4</v>
       </c>
-      <c r="AK63" s="74">
+      <c r="AK63" s="65">
         <f t="shared" si="4"/>
         <v>4.6177939999996197E-4</v>
       </c>
-      <c r="AL63" s="74">
+      <c r="AL63" s="65">
         <f t="shared" si="5"/>
         <v>4.6171099999998689E-4</v>
       </c>
-      <c r="AM63" s="74">
+      <c r="AM63" s="65">
         <f t="shared" si="6"/>
         <v>4.1509280000013861E-4</v>
       </c>
-      <c r="AN63" s="75"/>
-      <c r="AO63" s="74">
+      <c r="AN63" s="66"/>
+      <c r="AO63" s="65">
         <f t="shared" si="7"/>
         <v>3.7474439999991561E-4</v>
       </c>
-      <c r="AP63" s="74">
+      <c r="AP63" s="65">
         <f t="shared" si="8"/>
         <v>4.4318140000010331E-4</v>
       </c>
-      <c r="AQ63" s="74">
+      <c r="AQ63" s="65">
         <f t="shared" si="9"/>
         <v>4.3840190000006275E-4</v>
       </c>
@@ -31821,40 +31821,40 @@
         <v>0.1486611300000007</v>
       </c>
       <c r="AG64" s="52"/>
-      <c r="AH64" s="74">
+      <c r="AH64" s="65">
         <f t="shared" si="1"/>
         <v>0.1674301760000006</v>
       </c>
-      <c r="AI64" s="74">
+      <c r="AI64" s="65">
         <f t="shared" si="2"/>
         <v>0.19503490200000045</v>
       </c>
-      <c r="AJ64" s="74">
+      <c r="AJ64" s="65">
         <f t="shared" si="3"/>
         <v>0.171569212</v>
       </c>
-      <c r="AK64" s="74">
+      <c r="AK64" s="65">
         <f t="shared" si="4"/>
         <v>0.16223715599999977</v>
       </c>
-      <c r="AL64" s="74">
+      <c r="AL64" s="65">
         <f t="shared" si="5"/>
         <v>0.1568519039999984</v>
       </c>
-      <c r="AM64" s="74">
+      <c r="AM64" s="65">
         <f t="shared" si="6"/>
         <v>0.15102180200000107</v>
       </c>
-      <c r="AN64" s="75"/>
-      <c r="AO64" s="74">
+      <c r="AN64" s="66"/>
+      <c r="AO64" s="65">
         <f t="shared" si="7"/>
         <v>0.18123253900000053</v>
       </c>
-      <c r="AP64" s="74">
+      <c r="AP64" s="65">
         <f t="shared" si="8"/>
         <v>0.16690318399999987</v>
       </c>
-      <c r="AQ64" s="74">
+      <c r="AQ64" s="65">
         <f t="shared" si="9"/>
         <v>0.15393685299999973</v>
       </c>
@@ -31988,40 +31988,40 @@
         <v>0.44532129000000253</v>
       </c>
       <c r="AG65" s="52"/>
-      <c r="AH65" s="74">
+      <c r="AH65" s="65">
         <f t="shared" si="1"/>
         <v>0.49093710800000068</v>
       </c>
-      <c r="AI65" s="74">
+      <c r="AI65" s="65">
         <f t="shared" si="2"/>
         <v>0.52975971599999949</v>
       </c>
-      <c r="AJ65" s="74">
+      <c r="AJ65" s="65">
         <f t="shared" si="3"/>
         <v>0.49672576000000107</v>
       </c>
-      <c r="AK65" s="74">
+      <c r="AK65" s="65">
         <f t="shared" si="4"/>
         <v>0.4998461379999995</v>
       </c>
-      <c r="AL65" s="74">
+      <c r="AL65" s="65">
         <f t="shared" si="5"/>
         <v>0.47690887400000148</v>
       </c>
-      <c r="AM65" s="74">
+      <c r="AM65" s="65">
         <f t="shared" si="6"/>
         <v>0.45401561800000112</v>
       </c>
-      <c r="AN65" s="75"/>
-      <c r="AO65" s="74">
+      <c r="AN65" s="66"/>
+      <c r="AO65" s="65">
         <f t="shared" si="7"/>
         <v>0.51034841200000014</v>
       </c>
-      <c r="AP65" s="74">
+      <c r="AP65" s="65">
         <f t="shared" si="8"/>
         <v>0.49828594900000028</v>
       </c>
-      <c r="AQ65" s="74">
+      <c r="AQ65" s="65">
         <f t="shared" si="9"/>
         <v>0.4654622460000013</v>
       </c>
@@ -32155,40 +32155,40 @@
         <v>6.0449999999967474E-4</v>
       </c>
       <c r="AG66" s="52"/>
-      <c r="AH66" s="74">
+      <c r="AH66" s="65">
         <f t="shared" si="1"/>
         <v>5.4438000000018856E-4</v>
       </c>
-      <c r="AI66" s="74">
+      <c r="AI66" s="65">
         <f t="shared" si="2"/>
         <v>7.0945200000060993E-4</v>
       </c>
-      <c r="AJ66" s="74">
+      <c r="AJ66" s="65">
         <f t="shared" si="3"/>
         <v>6.5505199999975621E-4</v>
       </c>
-      <c r="AK66" s="74">
+      <c r="AK66" s="65">
         <f t="shared" si="4"/>
         <v>6.8665800000040629E-4</v>
       </c>
-      <c r="AL66" s="74">
+      <c r="AL66" s="65">
         <f t="shared" si="5"/>
         <v>6.9522800000001441E-4</v>
       </c>
-      <c r="AM66" s="74">
+      <c r="AM66" s="65">
         <f t="shared" si="6"/>
         <v>6.4108000000047123E-4</v>
       </c>
-      <c r="AN66" s="75"/>
-      <c r="AO66" s="74">
+      <c r="AN66" s="66"/>
+      <c r="AO66" s="65">
         <f t="shared" si="7"/>
         <v>6.2691600000039924E-4</v>
       </c>
-      <c r="AP66" s="74">
+      <c r="AP66" s="65">
         <f t="shared" si="8"/>
         <v>6.7085500000008125E-4</v>
       </c>
-      <c r="AQ66" s="74">
+      <c r="AQ66" s="65">
         <f t="shared" si="9"/>
         <v>6.6815400000024287E-4</v>
       </c>
@@ -32322,40 +32322,40 @@
         <v>2.9349799999955906E-4</v>
       </c>
       <c r="AG67" s="52"/>
-      <c r="AH67" s="74">
+      <c r="AH67" s="65">
         <f t="shared" si="1"/>
         <v>2.5117640000029697E-4</v>
       </c>
-      <c r="AI67" s="74">
+      <c r="AI67" s="65">
         <f t="shared" si="2"/>
         <v>3.2164020000013949E-4</v>
       </c>
-      <c r="AJ67" s="74">
+      <c r="AJ67" s="65">
         <f t="shared" si="3"/>
         <v>3.2256219999968747E-4</v>
       </c>
-      <c r="AK67" s="74">
+      <c r="AK67" s="65">
         <f t="shared" si="4"/>
         <v>3.5066340000007302E-4</v>
       </c>
-      <c r="AL67" s="74">
+      <c r="AL67" s="65">
         <f t="shared" si="5"/>
         <v>3.5045440000001091E-4</v>
       </c>
-      <c r="AM67" s="74">
+      <c r="AM67" s="65">
         <f t="shared" si="6"/>
         <v>3.1461159999981449E-4</v>
       </c>
-      <c r="AN67" s="75"/>
-      <c r="AO67" s="74">
+      <c r="AN67" s="66"/>
+      <c r="AO67" s="65">
         <f t="shared" si="7"/>
         <v>2.8640830000021823E-4</v>
       </c>
-      <c r="AP67" s="74">
+      <c r="AP67" s="65">
         <f t="shared" si="8"/>
         <v>3.3661279999988027E-4</v>
       </c>
-      <c r="AQ67" s="74">
+      <c r="AQ67" s="65">
         <f t="shared" si="9"/>
         <v>3.325329999999127E-4</v>
       </c>
@@ -32489,40 +32489,40 @@
         <v>4.3900400000040918E-3</v>
       </c>
       <c r="AG68" s="52"/>
-      <c r="AH68" s="74">
+      <c r="AH68" s="65">
         <f t="shared" si="1"/>
         <v>3.8738419999987173E-3</v>
       </c>
-      <c r="AI68" s="74">
+      <c r="AI68" s="65">
         <f t="shared" si="2"/>
         <v>4.9236779999972669E-3</v>
       </c>
-      <c r="AJ68" s="74">
+      <c r="AJ68" s="65">
         <f t="shared" si="3"/>
         <v>4.8180160000015348E-3</v>
       </c>
-      <c r="AK68" s="74">
+      <c r="AK68" s="65">
         <f t="shared" si="4"/>
         <v>5.20371200000227E-3</v>
       </c>
-      <c r="AL68" s="74">
+      <c r="AL68" s="65">
         <f t="shared" si="5"/>
         <v>5.2186100000000124E-3</v>
       </c>
-      <c r="AM68" s="74">
+      <c r="AM68" s="65">
         <f t="shared" si="6"/>
         <v>4.7024979999974901E-3</v>
       </c>
-      <c r="AN68" s="75"/>
-      <c r="AO68" s="74">
+      <c r="AN68" s="66"/>
+      <c r="AO68" s="65">
         <f t="shared" si="7"/>
         <v>4.3987599999979919E-3</v>
       </c>
-      <c r="AP68" s="74">
+      <c r="AP68" s="65">
         <f t="shared" si="8"/>
         <v>5.0108640000019024E-3</v>
       </c>
-      <c r="AQ68" s="74">
+      <c r="AQ68" s="65">
         <f t="shared" si="9"/>
         <v>4.9605539999987517E-3</v>
       </c>
@@ -32656,40 +32656,40 @@
         <v>1.3769900000015767E-4</v>
       </c>
       <c r="AG69" s="52"/>
-      <c r="AH69" s="74">
+      <c r="AH69" s="65">
         <f t="shared" si="1"/>
         <v>1.187776000000973E-4</v>
       </c>
-      <c r="AI69" s="74">
+      <c r="AI69" s="65">
         <f t="shared" si="2"/>
         <v>1.5207459999997397E-4</v>
       </c>
-      <c r="AJ69" s="74">
+      <c r="AJ69" s="65">
         <f t="shared" si="3"/>
         <v>1.508992000000653E-4</v>
       </c>
-      <c r="AK69" s="74">
+      <c r="AK69" s="65">
         <f t="shared" si="4"/>
         <v>1.6357780000015866E-4</v>
       </c>
-      <c r="AL69" s="74">
+      <c r="AL69" s="65">
         <f t="shared" si="5"/>
         <v>1.6383199999996377E-4</v>
       </c>
-      <c r="AM69" s="74">
+      <c r="AM69" s="65">
         <f t="shared" si="6"/>
         <v>1.4747979999993888E-4</v>
       </c>
-      <c r="AN69" s="75"/>
-      <c r="AO69" s="74">
+      <c r="AN69" s="66"/>
+      <c r="AO69" s="65">
         <f t="shared" si="7"/>
         <v>1.3542610000003564E-4</v>
       </c>
-      <c r="AP69" s="74">
+      <c r="AP69" s="65">
         <f t="shared" si="8"/>
         <v>1.5723850000011198E-4</v>
       </c>
-      <c r="AQ69" s="74">
+      <c r="AQ69" s="65">
         <f t="shared" si="9"/>
         <v>1.5565589999995134E-4</v>
       </c>
@@ -32823,40 +32823,40 @@
         <v>-9.6089999999549036E-3</v>
       </c>
       <c r="AG70" s="52"/>
-      <c r="AH70" s="74">
+      <c r="AH70" s="65">
         <f t="shared" si="1"/>
         <v>4.6210739999992256E-2</v>
       </c>
-      <c r="AI70" s="74">
+      <c r="AI70" s="65">
         <f t="shared" si="2"/>
         <v>4.3006179999997583E-2</v>
       </c>
-      <c r="AJ70" s="74">
+      <c r="AJ70" s="65">
         <f t="shared" si="3"/>
         <v>5.2445200000192926E-3</v>
       </c>
-      <c r="AK70" s="74">
+      <c r="AK70" s="65">
         <f t="shared" si="4"/>
         <v>-1.2740679999956228E-2</v>
       </c>
-      <c r="AL70" s="74">
+      <c r="AL70" s="65">
         <f t="shared" si="5"/>
         <v>-1.4387680000004366E-2</v>
       </c>
-      <c r="AM70" s="74">
+      <c r="AM70" s="65">
         <f t="shared" si="6"/>
         <v>-1.0918880000008357E-2</v>
       </c>
-      <c r="AN70" s="75"/>
-      <c r="AO70" s="74">
+      <c r="AN70" s="66"/>
+      <c r="AO70" s="65">
         <f t="shared" si="7"/>
         <v>4.4608459999994923E-2</v>
       </c>
-      <c r="AP70" s="74">
+      <c r="AP70" s="65">
         <f t="shared" si="8"/>
         <v>-3.7480799999684679E-3</v>
       </c>
-      <c r="AQ70" s="74">
+      <c r="AQ70" s="65">
         <f t="shared" si="9"/>
         <v>-1.2653280000006362E-2</v>
       </c>
@@ -32990,40 +32990,40 @@
         <v>1.3142100000004575</v>
       </c>
       <c r="AG71" s="52"/>
-      <c r="AH71" s="74">
+      <c r="AH71" s="65">
         <f t="shared" si="1"/>
         <v>1.6919740000004821</v>
       </c>
-      <c r="AI71" s="74">
+      <c r="AI71" s="65">
         <f t="shared" si="2"/>
         <v>2.3147699999994074</v>
       </c>
-      <c r="AJ71" s="74">
+      <c r="AJ71" s="65">
         <f t="shared" si="3"/>
         <v>1.7953600000000733</v>
       </c>
-      <c r="AK71" s="74">
+      <c r="AK71" s="65">
         <f t="shared" si="4"/>
         <v>1.4338040000002366</v>
       </c>
-      <c r="AL71" s="74">
+      <c r="AL71" s="65">
         <f t="shared" si="5"/>
         <v>1.3307059999999182</v>
       </c>
-      <c r="AM71" s="74">
+      <c r="AM71" s="65">
         <f t="shared" si="6"/>
         <v>1.3209400000007008</v>
       </c>
-      <c r="AN71" s="75"/>
-      <c r="AO71" s="74">
+      <c r="AN71" s="66"/>
+      <c r="AO71" s="65">
         <f t="shared" si="7"/>
         <v>2.0033719999999446</v>
       </c>
-      <c r="AP71" s="74">
+      <c r="AP71" s="65">
         <f t="shared" si="8"/>
         <v>1.6145820000001549</v>
       </c>
-      <c r="AQ71" s="74">
+      <c r="AQ71" s="65">
         <f t="shared" si="9"/>
         <v>1.3258230000003095</v>
       </c>
@@ -33157,40 +33157,40 @@
         <v>7.9875000000129148E-3</v>
       </c>
       <c r="AG72" s="52"/>
-      <c r="AH72" s="74">
+      <c r="AH72" s="65">
         <f t="shared" si="1"/>
         <v>1.2572280000006231E-2</v>
       </c>
-      <c r="AI72" s="74">
+      <c r="AI72" s="65">
         <f t="shared" si="2"/>
         <v>1.6786020000000689E-2</v>
       </c>
-      <c r="AJ72" s="74">
+      <c r="AJ72" s="65">
         <f t="shared" si="3"/>
         <v>1.2631439999995563E-2</v>
       </c>
-      <c r="AK72" s="74">
+      <c r="AK72" s="65">
         <f t="shared" si="4"/>
         <v>9.7836799999981849E-3</v>
       </c>
-      <c r="AL72" s="74">
+      <c r="AL72" s="65">
         <f t="shared" si="5"/>
         <v>8.6043599999982238E-3</v>
       </c>
-      <c r="AM72" s="74">
+      <c r="AM72" s="65">
         <f t="shared" si="6"/>
         <v>8.1472999999959942E-3</v>
       </c>
-      <c r="AN72" s="75"/>
-      <c r="AO72" s="74">
+      <c r="AN72" s="66"/>
+      <c r="AO72" s="65">
         <f t="shared" si="7"/>
         <v>1.4679150000003461E-2</v>
       </c>
-      <c r="AP72" s="74">
+      <c r="AP72" s="65">
         <f t="shared" si="8"/>
         <v>1.1207559999996874E-2</v>
       </c>
-      <c r="AQ72" s="74">
+      <c r="AQ72" s="65">
         <f t="shared" si="9"/>
         <v>8.375829999997109E-3</v>
       </c>
@@ -33367,29 +33367,29 @@
     <row r="74" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="55"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
       <c r="H74" s="56"/>
       <c r="I74" s="56"/>
       <c r="J74" s="56"/>
-      <c r="AG74" s="76"/>
-      <c r="AH74" s="74"/>
-      <c r="AI74" s="74"/>
-      <c r="AJ74" s="74"/>
-      <c r="AK74" s="74"/>
-      <c r="AL74" s="74"/>
-      <c r="AM74" s="74"/>
-      <c r="AN74" s="75"/>
-      <c r="AO74" s="74"/>
-      <c r="AP74" s="74"/>
-      <c r="AQ74" s="74"/>
+      <c r="AG74" s="67"/>
+      <c r="AH74" s="65"/>
+      <c r="AI74" s="65"/>
+      <c r="AJ74" s="65"/>
+      <c r="AK74" s="65"/>
+      <c r="AL74" s="65"/>
+      <c r="AM74" s="65"/>
+      <c r="AN74" s="66"/>
+      <c r="AO74" s="65"/>
+      <c r="AP74" s="65"/>
+      <c r="AQ74" s="65"/>
     </row>
     <row r="75" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="61" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="52"/>
@@ -33400,17 +33400,17 @@
       <c r="H75" s="52"/>
       <c r="I75" s="52"/>
       <c r="J75" s="52"/>
-      <c r="AG75" s="76"/>
-      <c r="AH75" s="74"/>
-      <c r="AI75" s="74"/>
-      <c r="AJ75" s="74"/>
-      <c r="AK75" s="74"/>
-      <c r="AL75" s="74"/>
-      <c r="AM75" s="74"/>
-      <c r="AN75" s="75"/>
-      <c r="AO75" s="74"/>
-      <c r="AP75" s="74"/>
-      <c r="AQ75" s="74"/>
+      <c r="AG75" s="67"/>
+      <c r="AH75" s="65"/>
+      <c r="AI75" s="65"/>
+      <c r="AJ75" s="65"/>
+      <c r="AK75" s="65"/>
+      <c r="AL75" s="65"/>
+      <c r="AM75" s="65"/>
+      <c r="AN75" s="66"/>
+      <c r="AO75" s="65"/>
+      <c r="AP75" s="65"/>
+      <c r="AQ75" s="65"/>
     </row>
     <row r="77" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
@@ -33537,41 +33537,41 @@
         <f t="shared" si="51"/>
         <v>1.9682877390000191</v>
       </c>
-      <c r="AG77" s="76"/>
-      <c r="AH77" s="74">
+      <c r="AG77" s="67"/>
+      <c r="AH77" s="65">
         <f>AVERAGE(C77:G77)</f>
         <v>1.9048345580000021</v>
       </c>
-      <c r="AI77" s="74">
+      <c r="AI77" s="65">
         <f>AVERAGE(H77:L77)</f>
         <v>2.2128985166000001</v>
       </c>
-      <c r="AJ77" s="74">
+      <c r="AJ77" s="65">
         <f>AVERAGE(M77:Q77)</f>
         <v>2.1656203274000001</v>
       </c>
-      <c r="AK77" s="74">
+      <c r="AK77" s="65">
         <f>AVERAGE(R77:V77)</f>
         <v>2.0920952654000002</v>
       </c>
-      <c r="AL77" s="74">
+      <c r="AL77" s="65">
         <f>AVERAGE(W77:AA77)</f>
         <v>2.0641046891999992</v>
       </c>
-      <c r="AM77" s="74">
+      <c r="AM77" s="65">
         <f>AVERAGE(AB77:AF77)</f>
         <v>2.003357977600003</v>
       </c>
-      <c r="AN77" s="75"/>
-      <c r="AO77" s="74">
+      <c r="AN77" s="66"/>
+      <c r="AO77" s="65">
         <f>AVERAGE(AH77:AI77)</f>
         <v>2.058866537300001</v>
       </c>
-      <c r="AP77" s="74">
+      <c r="AP77" s="65">
         <f>AVERAGE(AJ77:AK77)</f>
         <v>2.1288577964000002</v>
       </c>
-      <c r="AQ77" s="74">
+      <c r="AQ77" s="65">
         <f>AVERAGE(AL77:AM77)</f>
         <v>2.0337313334000013</v>
       </c>
@@ -33701,41 +33701,41 @@
         <f t="shared" si="52"/>
         <v>1.3046010000005026</v>
       </c>
-      <c r="AG78" s="76"/>
-      <c r="AH78" s="74">
+      <c r="AG78" s="67"/>
+      <c r="AH78" s="65">
         <f>AVERAGE(C78:G78)</f>
         <v>1.7381847400004744</v>
       </c>
-      <c r="AI78" s="74">
+      <c r="AI78" s="65">
         <f>AVERAGE(H78:L78)</f>
         <v>2.357776179999405</v>
       </c>
-      <c r="AJ78" s="74">
+      <c r="AJ78" s="65">
         <f>AVERAGE(M78:Q78)</f>
         <v>1.8006045200000926</v>
       </c>
-      <c r="AK78" s="74">
+      <c r="AK78" s="65">
         <f>AVERAGE(R78:V78)</f>
         <v>1.4210633200002802</v>
       </c>
-      <c r="AL78" s="74">
+      <c r="AL78" s="65">
         <f>AVERAGE(W78:AA78)</f>
         <v>1.316318319999914</v>
       </c>
-      <c r="AM78" s="74">
+      <c r="AM78" s="65">
         <f>AVERAGE(AB78:AF78)</f>
         <v>1.3100211200006924</v>
       </c>
-      <c r="AN78" s="75"/>
-      <c r="AO78" s="74">
+      <c r="AN78" s="66"/>
+      <c r="AO78" s="65">
         <f>AVERAGE(AH78:AI78)</f>
         <v>2.0479804599999398</v>
       </c>
-      <c r="AP78" s="74">
+      <c r="AP78" s="65">
         <f>AVERAGE(AJ78:AK78)</f>
         <v>1.6108339200001864</v>
       </c>
-      <c r="AQ78" s="74">
+      <c r="AQ78" s="65">
         <f>AVERAGE(AL78:AM78)</f>
         <v>1.3131697200003032</v>
       </c>
@@ -33865,41 +33865,41 @@
         <f t="shared" si="53"/>
         <v>8.6910919999809266E-2</v>
       </c>
-      <c r="AG79" s="76"/>
-      <c r="AH79" s="74">
+      <c r="AG79" s="67"/>
+      <c r="AH79" s="65">
         <f t="shared" si="1"/>
         <v>0.2227346840000976</v>
       </c>
-      <c r="AI79" s="74">
+      <c r="AI79" s="65">
         <f t="shared" si="2"/>
         <v>0.21994448400009931</v>
       </c>
-      <c r="AJ79" s="74">
+      <c r="AJ79" s="65">
         <f t="shared" si="3"/>
         <v>0.12385862400003447</v>
       </c>
-      <c r="AK79" s="74">
+      <c r="AK79" s="65">
         <f t="shared" si="4"/>
         <v>7.7847138000016969E-2</v>
       </c>
-      <c r="AL79" s="74">
+      <c r="AL79" s="65">
         <f t="shared" si="5"/>
         <v>7.6349863999962506E-2</v>
       </c>
-      <c r="AM79" s="74">
+      <c r="AM79" s="65">
         <f t="shared" si="6"/>
         <v>8.4723449999943051E-2</v>
       </c>
-      <c r="AN79" s="75"/>
-      <c r="AO79" s="74">
+      <c r="AN79" s="66"/>
+      <c r="AO79" s="65">
         <f t="shared" si="7"/>
         <v>0.22133958400009845</v>
       </c>
-      <c r="AP79" s="74">
+      <c r="AP79" s="65">
         <f t="shared" si="8"/>
         <v>0.10085288100002572</v>
       </c>
-      <c r="AQ79" s="74">
+      <c r="AQ79" s="65">
         <f t="shared" si="9"/>
         <v>8.0536656999952771E-2</v>
       </c>
@@ -34029,41 +34029,41 @@
         <f t="shared" si="54"/>
         <v>9.3718000000080792E-2</v>
       </c>
-      <c r="AG80" s="76"/>
-      <c r="AH80" s="74">
+      <c r="AG80" s="67"/>
+      <c r="AH80" s="65">
         <f t="shared" si="1"/>
         <v>8.0588600000010044E-2</v>
       </c>
-      <c r="AI80" s="74">
+      <c r="AI80" s="65">
         <f t="shared" si="2"/>
         <v>0.10933120000004237</v>
       </c>
-      <c r="AJ80" s="74">
+      <c r="AJ80" s="65">
         <f t="shared" si="3"/>
         <v>0.10843659999991359</v>
       </c>
-      <c r="AK80" s="74">
+      <c r="AK80" s="65">
         <f t="shared" si="4"/>
         <v>0.11322639999993953</v>
       </c>
-      <c r="AL80" s="74">
+      <c r="AL80" s="65">
         <f t="shared" si="5"/>
         <v>0.11090659999995296</v>
       </c>
-      <c r="AM80" s="74">
+      <c r="AM80" s="65">
         <f t="shared" si="6"/>
         <v>9.982420000001184E-2</v>
       </c>
-      <c r="AN80" s="75"/>
-      <c r="AO80" s="74">
+      <c r="AN80" s="66"/>
+      <c r="AO80" s="65">
         <f t="shared" si="7"/>
         <v>9.4959900000026215E-2</v>
       </c>
-      <c r="AP80" s="74">
+      <c r="AP80" s="65">
         <f t="shared" si="8"/>
         <v>0.11083149999992656</v>
       </c>
-      <c r="AQ80" s="74">
+      <c r="AQ80" s="65">
         <f t="shared" si="9"/>
         <v>0.1053653999999824</v>
       </c>
@@ -34193,41 +34193,41 @@
         <f t="shared" si="55"/>
         <v>7.9875000000129148E-3</v>
       </c>
-      <c r="AG81" s="76"/>
-      <c r="AH81" s="74">
+      <c r="AG81" s="67"/>
+      <c r="AH81" s="65">
         <f>AVERAGE(C81:G81)</f>
         <v>1.2572280000006231E-2</v>
       </c>
-      <c r="AI81" s="74">
+      <c r="AI81" s="65">
         <f>AVERAGE(H81:L81)</f>
         <v>1.6786020000000689E-2</v>
       </c>
-      <c r="AJ81" s="74">
+      <c r="AJ81" s="65">
         <f>AVERAGE(M81:Q81)</f>
         <v>1.2631439999995563E-2</v>
       </c>
-      <c r="AK81" s="74">
+      <c r="AK81" s="65">
         <f>AVERAGE(R81:V81)</f>
         <v>9.7836799999981849E-3</v>
       </c>
-      <c r="AL81" s="74">
+      <c r="AL81" s="65">
         <f>AVERAGE(W81:AA81)</f>
         <v>8.6043599999982238E-3</v>
       </c>
-      <c r="AM81" s="74">
+      <c r="AM81" s="65">
         <f>AVERAGE(AB81:AF81)</f>
         <v>8.1472999999959942E-3</v>
       </c>
-      <c r="AN81" s="75"/>
-      <c r="AO81" s="74">
+      <c r="AN81" s="66"/>
+      <c r="AO81" s="65">
         <f>AVERAGE(AH81:AI81)</f>
         <v>1.4679150000003461E-2</v>
       </c>
-      <c r="AP81" s="74">
+      <c r="AP81" s="65">
         <f>AVERAGE(AJ81:AK81)</f>
         <v>1.1207559999996874E-2</v>
       </c>
-      <c r="AQ81" s="74">
+      <c r="AQ81" s="65">
         <f>AVERAGE(AL81:AM81)</f>
         <v>8.375829999997109E-3</v>
       </c>
@@ -34357,41 +34357,41 @@
         <f t="shared" si="56"/>
         <v>1.3859989999943423E-2</v>
       </c>
-      <c r="AG82" s="76"/>
-      <c r="AH82" s="74">
+      <c r="AG82" s="67"/>
+      <c r="AH82" s="65">
         <f>AVERAGE(C82:G82)</f>
         <v>6.5279832000013013E-2</v>
       </c>
-      <c r="AI82" s="74">
+      <c r="AI82" s="65">
         <f>AVERAGE(H82:L82)</f>
         <v>7.3654814000013863E-2</v>
       </c>
-      <c r="AJ82" s="74">
+      <c r="AJ82" s="65">
         <f>AVERAGE(M82:Q82)</f>
         <v>3.2356779999966535E-2</v>
       </c>
-      <c r="AK82" s="74">
+      <c r="AK82" s="65">
         <f>AVERAGE(R82:V82)</f>
         <v>1.0067125999998438E-2</v>
       </c>
-      <c r="AL82" s="74">
+      <c r="AL82" s="65">
         <f>AVERAGE(W82:AA82)</f>
         <v>7.5860840000046888E-3</v>
       </c>
-      <c r="AM82" s="74">
+      <c r="AM82" s="65">
         <f>AVERAGE(AB82:AF82)</f>
         <v>1.2093140000007451E-2</v>
       </c>
-      <c r="AN82" s="75"/>
-      <c r="AO82" s="74">
+      <c r="AN82" s="66"/>
+      <c r="AO82" s="65">
         <f>AVERAGE(AH82:AI82)</f>
         <v>6.9467323000013431E-2</v>
       </c>
-      <c r="AP82" s="74">
+      <c r="AP82" s="65">
         <f>AVERAGE(AJ82:AK82)</f>
         <v>2.1211952999982485E-2</v>
       </c>
-      <c r="AQ82" s="74">
+      <c r="AQ82" s="65">
         <f>AVERAGE(AL82:AM82)</f>
         <v>9.8396120000060691E-3</v>
       </c>
@@ -34568,24 +34568,24 @@
     <row r="84" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="78"/>
+      <c r="C84" s="69"/>
       <c r="D84" s="52"/>
       <c r="E84" s="52"/>
       <c r="F84" s="52"/>
       <c r="G84" s="52"/>
-      <c r="H84" s="78"/>
+      <c r="H84" s="69"/>
       <c r="I84" s="52"/>
       <c r="J84" s="52"/>
-      <c r="AH84" s="74"/>
-      <c r="AI84" s="74"/>
-      <c r="AJ84" s="74"/>
-      <c r="AK84" s="74"/>
-      <c r="AL84" s="74"/>
-      <c r="AM84" s="74"/>
-      <c r="AN84" s="75"/>
-      <c r="AO84" s="74"/>
-      <c r="AP84" s="74"/>
-      <c r="AQ84" s="74"/>
+      <c r="AH84" s="65"/>
+      <c r="AI84" s="65"/>
+      <c r="AJ84" s="65"/>
+      <c r="AK84" s="65"/>
+      <c r="AL84" s="65"/>
+      <c r="AM84" s="65"/>
+      <c r="AN84" s="66"/>
+      <c r="AO84" s="65"/>
+      <c r="AP84" s="65"/>
+      <c r="AQ84" s="65"/>
     </row>
     <row r="85" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="13"/>
@@ -34598,20 +34598,20 @@
       <c r="H85" s="52"/>
       <c r="I85" s="52"/>
       <c r="J85" s="52"/>
-      <c r="AH85" s="74"/>
-      <c r="AI85" s="74"/>
-      <c r="AJ85" s="74"/>
-      <c r="AK85" s="74"/>
-      <c r="AL85" s="74"/>
-      <c r="AM85" s="74"/>
-      <c r="AN85" s="75"/>
-      <c r="AO85" s="74"/>
-      <c r="AP85" s="74"/>
-      <c r="AQ85" s="74"/>
+      <c r="AH85" s="65"/>
+      <c r="AI85" s="65"/>
+      <c r="AJ85" s="65"/>
+      <c r="AK85" s="65"/>
+      <c r="AL85" s="65"/>
+      <c r="AM85" s="65"/>
+      <c r="AN85" s="66"/>
+      <c r="AO85" s="65"/>
+      <c r="AP85" s="65"/>
+      <c r="AQ85" s="65"/>
     </row>
     <row r="86" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="61" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="52"/>
@@ -34622,16 +34622,16 @@
       <c r="H86" s="52"/>
       <c r="I86" s="52"/>
       <c r="J86" s="52"/>
-      <c r="AH86" s="74"/>
-      <c r="AI86" s="74"/>
-      <c r="AJ86" s="74"/>
-      <c r="AK86" s="74"/>
-      <c r="AL86" s="74"/>
-      <c r="AM86" s="74"/>
-      <c r="AN86" s="75"/>
-      <c r="AO86" s="74"/>
-      <c r="AP86" s="74"/>
-      <c r="AQ86" s="74"/>
+      <c r="AH86" s="65"/>
+      <c r="AI86" s="65"/>
+      <c r="AJ86" s="65"/>
+      <c r="AK86" s="65"/>
+      <c r="AL86" s="65"/>
+      <c r="AM86" s="65"/>
+      <c r="AN86" s="66"/>
+      <c r="AO86" s="65"/>
+      <c r="AP86" s="65"/>
+      <c r="AQ86" s="65"/>
     </row>
     <row r="87" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="str">
@@ -34759,40 +34759,40 @@
         <f t="shared" si="69"/>
         <v>0.90756730000001085</v>
       </c>
-      <c r="AH87" s="74">
+      <c r="AH87" s="65">
         <f t="shared" ref="AH87:AH93" si="70">AVERAGE(C87:G87)</f>
         <v>0.93807402000000195</v>
       </c>
-      <c r="AI87" s="74">
+      <c r="AI87" s="65">
         <f t="shared" ref="AI87:AI93" si="71">AVERAGE(H87:L87)</f>
         <v>1.1661376800000027</v>
       </c>
-      <c r="AJ87" s="74">
+      <c r="AJ87" s="65">
         <f t="shared" ref="AJ87:AJ93" si="72">AVERAGE(M87:Q87)</f>
         <v>1.0001030199999974</v>
       </c>
-      <c r="AK87" s="74">
+      <c r="AK87" s="65">
         <f t="shared" ref="AK87:AK93" si="73">AVERAGE(R87:V87)</f>
         <v>0.92192247999999777</v>
       </c>
-      <c r="AL87" s="74">
+      <c r="AL87" s="65">
         <f t="shared" ref="AL87:AL93" si="74">AVERAGE(W87:AA87)</f>
         <v>0.93425825999999856</v>
       </c>
-      <c r="AM87" s="74">
+      <c r="AM87" s="65">
         <f t="shared" ref="AM87:AM93" si="75">AVERAGE(AB87:AF87)</f>
         <v>0.92147554000000298</v>
       </c>
-      <c r="AN87" s="75"/>
-      <c r="AO87" s="74">
+      <c r="AN87" s="66"/>
+      <c r="AO87" s="65">
         <f t="shared" ref="AO87:AO93" si="76">AVERAGE(AH87:AI87)</f>
         <v>1.0521058500000025</v>
       </c>
-      <c r="AP87" s="74">
+      <c r="AP87" s="65">
         <f t="shared" ref="AP87:AP93" si="77">AVERAGE(AJ87:AK87)</f>
         <v>0.96101274999999764</v>
       </c>
-      <c r="AQ87" s="74">
+      <c r="AQ87" s="65">
         <f t="shared" ref="AQ87:AQ93" si="78">AVERAGE(AL87:AM87)</f>
         <v>0.92786690000000083</v>
       </c>
@@ -34923,40 +34923,40 @@
         <f t="shared" si="69"/>
         <v>0.46050655800000051</v>
       </c>
-      <c r="AH88" s="74">
+      <c r="AH88" s="65">
         <f t="shared" si="70"/>
         <v>0.30292156299999978</v>
       </c>
-      <c r="AI88" s="74">
+      <c r="AI88" s="65">
         <f t="shared" si="71"/>
         <v>0.31498507559999994</v>
       </c>
-      <c r="AJ88" s="74">
+      <c r="AJ88" s="65">
         <f t="shared" si="72"/>
         <v>0.49038495740000021</v>
       </c>
-      <c r="AK88" s="74">
+      <c r="AK88" s="65">
         <f t="shared" si="73"/>
         <v>0.50071234480000038</v>
       </c>
-      <c r="AL88" s="74">
+      <c r="AL88" s="65">
         <f t="shared" si="74"/>
         <v>0.48868924920000029</v>
       </c>
-      <c r="AM88" s="74">
+      <c r="AM88" s="65">
         <f t="shared" si="75"/>
         <v>0.47017429760000001</v>
       </c>
-      <c r="AN88" s="75"/>
-      <c r="AO88" s="74">
+      <c r="AN88" s="66"/>
+      <c r="AO88" s="65">
         <f t="shared" si="76"/>
         <v>0.30895331929999986</v>
       </c>
-      <c r="AP88" s="74">
+      <c r="AP88" s="65">
         <f t="shared" si="77"/>
         <v>0.49554865110000029</v>
       </c>
-      <c r="AQ88" s="74">
+      <c r="AQ88" s="65">
         <f t="shared" si="78"/>
         <v>0.47943177340000015</v>
       </c>
@@ -35087,40 +35087,40 @@
         <f t="shared" si="69"/>
         <v>4.1812600000135092E-4</v>
       </c>
-      <c r="AH89" s="74">
+      <c r="AH89" s="65">
         <f t="shared" si="70"/>
         <v>3.559435999997973E-4</v>
       </c>
-      <c r="AI89" s="74">
+      <c r="AI89" s="65">
         <f t="shared" si="71"/>
         <v>4.5238079999982973E-4</v>
       </c>
-      <c r="AJ89" s="74">
+      <c r="AJ89" s="65">
         <f t="shared" si="72"/>
         <v>4.6626520000003779E-4</v>
       </c>
-      <c r="AK89" s="74">
+      <c r="AK89" s="65">
         <f t="shared" si="73"/>
         <v>5.1075599999972354E-4</v>
       </c>
-      <c r="AL89" s="74">
+      <c r="AL89" s="65">
         <f t="shared" si="74"/>
         <v>5.0656660000036879E-4</v>
       </c>
-      <c r="AM89" s="74">
+      <c r="AM89" s="65">
         <f t="shared" si="75"/>
         <v>4.4995780000007813E-4</v>
       </c>
-      <c r="AN89" s="75"/>
-      <c r="AO89" s="74">
+      <c r="AN89" s="66"/>
+      <c r="AO89" s="65">
         <f t="shared" si="76"/>
         <v>4.0416219999981349E-4</v>
       </c>
-      <c r="AP89" s="74">
+      <c r="AP89" s="65">
         <f t="shared" si="77"/>
         <v>4.8851059999988067E-4</v>
       </c>
-      <c r="AQ89" s="74">
+      <c r="AQ89" s="65">
         <f t="shared" si="78"/>
         <v>4.7826220000022344E-4</v>
       </c>
@@ -35251,40 +35251,40 @@
         <f t="shared" si="69"/>
         <v>3.8759799999965594E-4</v>
       </c>
-      <c r="AH90" s="74">
+      <c r="AH90" s="65">
         <f t="shared" si="70"/>
         <v>3.275714000000818E-4</v>
       </c>
-      <c r="AI90" s="74">
+      <c r="AI90" s="65">
         <f t="shared" si="71"/>
         <v>4.2191739999974942E-4</v>
       </c>
-      <c r="AJ90" s="74">
+      <c r="AJ90" s="65">
         <f t="shared" si="72"/>
         <v>4.2458340000024465E-4</v>
       </c>
-      <c r="AK90" s="74">
+      <c r="AK90" s="65">
         <f t="shared" si="73"/>
         <v>4.6177939999996197E-4</v>
       </c>
-      <c r="AL90" s="74">
+      <c r="AL90" s="65">
         <f t="shared" si="74"/>
         <v>4.6171099999998689E-4</v>
       </c>
-      <c r="AM90" s="74">
+      <c r="AM90" s="65">
         <f t="shared" si="75"/>
         <v>4.1509280000013861E-4</v>
       </c>
-      <c r="AN90" s="75"/>
-      <c r="AO90" s="74">
+      <c r="AN90" s="66"/>
+      <c r="AO90" s="65">
         <f t="shared" si="76"/>
         <v>3.7474439999991561E-4</v>
       </c>
-      <c r="AP90" s="74">
+      <c r="AP90" s="65">
         <f t="shared" si="77"/>
         <v>4.4318140000010331E-4</v>
       </c>
-      <c r="AQ90" s="74">
+      <c r="AQ90" s="65">
         <f t="shared" si="78"/>
         <v>4.3840190000006275E-4</v>
       </c>
@@ -35415,40 +35415,40 @@
         <f t="shared" si="69"/>
         <v>0.1486611300000007</v>
       </c>
-      <c r="AH91" s="74">
+      <c r="AH91" s="65">
         <f t="shared" si="70"/>
         <v>0.1674301760000006</v>
       </c>
-      <c r="AI91" s="74">
+      <c r="AI91" s="65">
         <f t="shared" si="71"/>
         <v>0.19503490200000045</v>
       </c>
-      <c r="AJ91" s="74">
+      <c r="AJ91" s="65">
         <f t="shared" si="72"/>
         <v>0.171569212</v>
       </c>
-      <c r="AK91" s="74">
+      <c r="AK91" s="65">
         <f t="shared" si="73"/>
         <v>0.16223715599999977</v>
       </c>
-      <c r="AL91" s="74">
+      <c r="AL91" s="65">
         <f t="shared" si="74"/>
         <v>0.1568519039999984</v>
       </c>
-      <c r="AM91" s="74">
+      <c r="AM91" s="65">
         <f t="shared" si="75"/>
         <v>0.15102180200000107</v>
       </c>
-      <c r="AN91" s="75"/>
-      <c r="AO91" s="74">
+      <c r="AN91" s="66"/>
+      <c r="AO91" s="65">
         <f t="shared" si="76"/>
         <v>0.18123253900000053</v>
       </c>
-      <c r="AP91" s="74">
+      <c r="AP91" s="65">
         <f t="shared" si="77"/>
         <v>0.16690318399999987</v>
       </c>
-      <c r="AQ91" s="74">
+      <c r="AQ91" s="65">
         <f t="shared" si="78"/>
         <v>0.15393685299999973</v>
       </c>
@@ -35579,47 +35579,47 @@
         <f t="shared" si="69"/>
         <v>0.44532129000000253</v>
       </c>
-      <c r="AH92" s="74">
+      <c r="AH92" s="65">
         <f t="shared" si="70"/>
         <v>0.49093710800000068</v>
       </c>
-      <c r="AI92" s="74">
+      <c r="AI92" s="65">
         <f t="shared" si="71"/>
         <v>0.52975971599999949</v>
       </c>
-      <c r="AJ92" s="74">
+      <c r="AJ92" s="65">
         <f t="shared" si="72"/>
         <v>0.49672576000000107</v>
       </c>
-      <c r="AK92" s="74">
+      <c r="AK92" s="65">
         <f t="shared" si="73"/>
         <v>0.4998461379999995</v>
       </c>
-      <c r="AL92" s="74">
+      <c r="AL92" s="65">
         <f t="shared" si="74"/>
         <v>0.47690887400000148</v>
       </c>
-      <c r="AM92" s="74">
+      <c r="AM92" s="65">
         <f t="shared" si="75"/>
         <v>0.45401561800000112</v>
       </c>
-      <c r="AN92" s="75"/>
-      <c r="AO92" s="74">
+      <c r="AN92" s="66"/>
+      <c r="AO92" s="65">
         <f t="shared" si="76"/>
         <v>0.51034841200000014</v>
       </c>
-      <c r="AP92" s="74">
+      <c r="AP92" s="65">
         <f t="shared" si="77"/>
         <v>0.49828594900000028</v>
       </c>
-      <c r="AQ92" s="74">
+      <c r="AQ92" s="65">
         <f t="shared" si="78"/>
         <v>0.4654622460000013</v>
       </c>
     </row>
     <row r="93" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="80" t="s">
-        <v>440</v>
+      <c r="A93" s="71" t="s">
+        <v>444</v>
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="52">
@@ -35742,40 +35742,40 @@
         <f t="shared" si="81"/>
         <v>5.4257370000034832E-3</v>
       </c>
-      <c r="AH93" s="74">
+      <c r="AH93" s="65">
         <f t="shared" si="70"/>
         <v>4.7881759999992999E-3</v>
       </c>
-      <c r="AI93" s="74">
+      <c r="AI93" s="65">
         <f t="shared" si="71"/>
         <v>6.1068447999979899E-3</v>
       </c>
-      <c r="AJ93" s="74">
+      <c r="AJ93" s="65">
         <f t="shared" si="72"/>
         <v>5.9465294000010434E-3</v>
       </c>
-      <c r="AK93" s="74">
+      <c r="AK93" s="65">
         <f t="shared" si="73"/>
         <v>6.4046112000029076E-3</v>
       </c>
-      <c r="AL93" s="74">
+      <c r="AL93" s="65">
         <f t="shared" si="74"/>
         <v>6.4281244000000013E-3</v>
       </c>
-      <c r="AM93" s="74">
+      <c r="AM93" s="65">
         <f t="shared" si="75"/>
         <v>5.8056693999977149E-3</v>
       </c>
-      <c r="AN93" s="75"/>
-      <c r="AO93" s="74">
+      <c r="AN93" s="66"/>
+      <c r="AO93" s="65">
         <f t="shared" si="76"/>
         <v>5.4475103999986445E-3</v>
       </c>
-      <c r="AP93" s="74">
+      <c r="AP93" s="65">
         <f t="shared" si="77"/>
         <v>6.1755703000019755E-3</v>
       </c>
-      <c r="AQ93" s="74">
+      <c r="AQ93" s="65">
         <f t="shared" si="78"/>
         <v>6.1168968999988586E-3</v>
       </c>
@@ -35784,168 +35784,168 @@
       <c r="A94" s="62" t="s">
         <v>424</v>
       </c>
-      <c r="B94" s="81"/>
-      <c r="C94" s="82" t="str">
+      <c r="B94" s="72"/>
+      <c r="C94" s="73" t="str">
         <f>IF(ROUND(C77-SUM(C87:C93),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="D94" s="82" t="str">
+      <c r="D94" s="73" t="str">
         <f t="shared" ref="D94:AF94" si="82">IF(ROUND(D77-SUM(D87:D93),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="E94" s="82" t="str">
+      <c r="E94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="F94" s="82" t="str">
+      <c r="F94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="G94" s="82" t="str">
+      <c r="G94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="H94" s="82" t="str">
+      <c r="H94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="I94" s="82" t="str">
+      <c r="I94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="J94" s="82" t="str">
+      <c r="J94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="K94" s="82" t="str">
+      <c r="K94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="L94" s="82" t="str">
+      <c r="L94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="M94" s="82" t="str">
+      <c r="M94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="N94" s="82" t="str">
+      <c r="N94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="O94" s="82" t="str">
+      <c r="O94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="P94" s="82" t="str">
+      <c r="P94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="Q94" s="82" t="str">
+      <c r="Q94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="R94" s="82" t="str">
+      <c r="R94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="S94" s="82" t="str">
+      <c r="S94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="T94" s="82" t="str">
+      <c r="T94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="U94" s="82" t="str">
+      <c r="U94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="V94" s="82" t="str">
+      <c r="V94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="W94" s="82" t="str">
+      <c r="W94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="X94" s="82" t="str">
+      <c r="X94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="Y94" s="82" t="str">
+      <c r="Y94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="Z94" s="82" t="str">
+      <c r="Z94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="AA94" s="82" t="str">
+      <c r="AA94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="AB94" s="82" t="str">
+      <c r="AB94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="AC94" s="82" t="str">
+      <c r="AC94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="AD94" s="82" t="str">
+      <c r="AD94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="AE94" s="82" t="str">
+      <c r="AE94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="AF94" s="82" t="str">
+      <c r="AF94" s="73" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="AG94" s="82" t="str">
+      <c r="AG94" s="73" t="str">
         <f t="shared" ref="AG94" si="83">IF(ROUND(AG77-SUM(AG87:AG93),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="AH94" s="82" t="str">
+      <c r="AH94" s="73" t="str">
         <f t="shared" ref="AH94" si="84">IF(ROUND(AH77-SUM(AH87:AH93),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="AI94" s="82" t="str">
+      <c r="AI94" s="73" t="str">
         <f t="shared" ref="AI94" si="85">IF(ROUND(AI77-SUM(AI87:AI93),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="AJ94" s="82" t="str">
+      <c r="AJ94" s="73" t="str">
         <f t="shared" ref="AJ94" si="86">IF(ROUND(AJ77-SUM(AJ87:AJ93),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="AK94" s="82" t="str">
+      <c r="AK94" s="73" t="str">
         <f t="shared" ref="AK94" si="87">IF(ROUND(AK77-SUM(AK87:AK93),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="AL94" s="82" t="str">
+      <c r="AL94" s="73" t="str">
         <f t="shared" ref="AL94" si="88">IF(ROUND(AL77-SUM(AL87:AL93),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="AM94" s="82" t="str">
+      <c r="AM94" s="73" t="str">
         <f t="shared" ref="AM94" si="89">IF(ROUND(AM77-SUM(AM87:AM93),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="AN94" s="82" t="str">
+      <c r="AN94" s="73" t="str">
         <f t="shared" ref="AN94" si="90">IF(ROUND(AN77-SUM(AN87:AN93),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="AO94" s="82" t="str">
+      <c r="AO94" s="73" t="str">
         <f t="shared" ref="AO94" si="91">IF(ROUND(AO77-SUM(AO87:AO93),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="AP94" s="82" t="str">
+      <c r="AP94" s="73" t="str">
         <f t="shared" ref="AP94" si="92">IF(ROUND(AP77-SUM(AP87:AP93),4)=0,"","ERROR")</f>
         <v/>
       </c>
-      <c r="AQ94" s="82" t="str">
+      <c r="AQ94" s="73" t="str">
         <f t="shared" ref="AQ94" si="93">IF(ROUND(AQ77-SUM(AQ87:AQ93),4)=0,"","ERROR")</f>
         <v/>
       </c>
@@ -36001,7 +36001,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36280,7 +36280,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
